--- a/add-columns/mobile_techniques_new.xlsx
+++ b/add-columns/mobile_techniques_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="1291">
   <si>
     <t>ID</t>
   </si>
@@ -1207,6 +1207,9 @@
     <t>Security Software Discovery (T1418.001)</t>
   </si>
   <si>
+    <t>Discovery (TA0032), Credential Access (TA0031)</t>
+  </si>
+  <si>
     <t>Network Service Scanning (T1423), Exploitation for Privilege Escalation (T1404)</t>
   </si>
   <si>
@@ -1225,19 +1228,22 @@
     <t>Asymmetric Cryptography (T1521.002)</t>
   </si>
   <si>
-    <t>SSL Pinning (T1521.003), SSL Pinning (T1521.003), SSL Pinning (T1521.003), SSL Pinning (T1521.003)</t>
+    <t>SSL Pinning (T1521.003)</t>
   </si>
   <si>
     <t>Input Injection (T1516)</t>
   </si>
   <si>
-    <t>Endpoint Denial of Service (T1642), File Deletion (T1630.002), Input Injection (T1516)</t>
-  </si>
-  <si>
-    <t>System Checks (T1633.001), System Checks (T1633.001)</t>
-  </si>
-  <si>
-    <t>Geofencing (T1627.001), Geofencing (T1627.001), Geofencing (T1627.001), Geofencing (T1627.001)</t>
+    <t>Initial Access (TA0027)</t>
+  </si>
+  <si>
+    <t>File Deletion (T1630.002), Endpoint Denial of Service (T1642), Input Injection (T1516)</t>
+  </si>
+  <si>
+    <t>System Checks (T1633.001)</t>
+  </si>
+  <si>
+    <t>Geofencing (T1627.001)</t>
   </si>
   <si>
     <t>Calendar Entries (T1636.001)</t>
@@ -1258,10 +1264,10 @@
     <t>Domain Generation Algorithms (T1637.001)</t>
   </si>
   <si>
-    <t>Transmitted Data Manipulation (T1565.002), Endpoint Denial of Service (T1642), ARP Cache Poisoning (T1557.002), DHCP Spoofing (T1557.003)</t>
-  </si>
-  <si>
-    <t>Transmitted Data Manipulation (T1641.001), Transmitted Data Manipulation (T1641.001), Transmitted Data Manipulation (T1641.001)</t>
+    <t>ARP Cache Poisoning (T1557.002), Transmitted Data Manipulation (T1565.002), Endpoint Denial of Service (T1642), DHCP Spoofing (T1557.003)</t>
+  </si>
+  <si>
+    <t>Transmitted Data Manipulation (T1641.001)</t>
   </si>
   <si>
     <t>Drive-By Compromise (T1456), Phishing (T1660)</t>
@@ -1934,112 +1940,112 @@
     <t xml:space="preserve">  use script automatically execute boot logon initialization establish persistence initialization script underlie operating system accessible user device root jailbroken</t>
   </si>
   <si>
-    <t xml:space="preserve">  exploit software vulnerability elevate privilege exploitation software vulnerability occur take advantage programming error application service operating system software kernel execute -controlled code security construction permission level hinder access information use certain technique likely need perform privilege escalation include use software exploitation circumvent restriction initially gain access device operate lower privileged process prevent access certain resource system vulnerability exist usually operating system component application run high permission exploit gain high level access system enable unprivileged user- level permission root permission depend component vulnerable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt payload file difficult discover analyze encrypt encoding obfuscate content device transit common behavior different platform network evade defense   payload compress archive encrypt avoid detection payload initial access later mitigate detection portion file encode hide plaintext string help defender discovery payload split separate seemingly benign file reveal malicious functionality reassemble</t>
+    <t xml:space="preserve">  exploit software vulnerability elevate privilege exploitation software vulnerability occur take advantage programming error application service operating system software kernel execute controlled code security construction permission level hinder access information use certain technique likely need perform privilege escalation include use software exploitation circumvent restriction initially gain access device operate lower privileged process prevent access certain resource system vulnerability exist usually operating system component application run high permission exploit gain high level access system enable unprivileged user level permission root permission depend component vulnerable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt payload file difficult discover analyze encrypt encoding obfuscate content device transit common behavior different platform network evade defense   payload compress archive encrypt avoid detection payload Initial Access later mitigate detection portion file encode hide plaintext string help defender discovery payload split separate seemingly benign file reveal malicious functionality reassemble</t>
   </si>
   <si>
     <t xml:space="preserve">  use steganography technique prevent detection hidden information steganographic technique hide datum digital medium image audio track video clip text file</t>
   </si>
   <si>
-    <t xml:space="preserve">  perform software pack conceal code software packing method compress encrypt executable pack executable change file signature attempt avoid signature base detection decompression technique decompress executable code memory utility perform software packing call packer example packer ftt comprehensive list known packer available   create packing technique leave artifact know packer evade defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  download execute dynamic code include original application package installation technique primarily evade static analysis check pre publication scan official app store case advanced dynamic behavioral analysis technique detect behavior conjunction execution guardrails](https://attack.mitre.org technique t1627 technique detect malicious code download installation difficult.on android dynamic code include native code dalvik code javascript code utilize android webview ` javascriptinterface ` capability ios dynamic code download execute 3rd party library jspatch citation fireeye jspatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  try access collect application datum resident device target popular application facebook wechat gmail   mobile os sandboxing technique possible scenario   application store file unprotected external storage application store file internal storage directory insecure permission e.g. 777 gain root permission device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  abuse clipboard manager apis obtain sensitive information copy device clipboard example password copy paste password manager application capture malicious application instal device.(citation fahl clipboard   android application use ` clipboardmanager.onprimaryclipchangedlistener ` api register listener monitor clipboard change start android 10 application foreground set device default input method editor ime   ios accomplish access ` uipasteboard.general.string ` field start ios 14 access clipboard user show system notification access text originate different application example user copy text imessage message application notification read application_name paste message text paste different application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use method capture user input obtain credential collect information normal device usage user provide credential location login page portal system dialog box input capture mechanism transparent user e.g. keylogging](https://attack.mitre.org technique t1417/001 rely deceive user provide input believe genuine application prompt e.g. gui input capture](https://attack.mitre.org technique t1417/002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  log user keystroke intercept credential information user user type them.some method keylogging include masquerade legitimate party keyboard record user keystrokes.(citation zeltser keyboard android io user explicitly authorize use party keyboard app user advise use extreme caution grant authorization request abuse accessibility feature android   abuse accessibility feature record keystroke register ` accessibilityservice ` class override ` onaccessibilityevent ` method listen ` accessibilityevent.type_view_text_change ` event type event object pass function contain datum user type additional method keylogging possible root access available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  mimic common operating system gui component prompt user sensitive information seemingly legitimate prompt operate system instal application legitimate need prompt user sensitive information account credential bank account information personally identifiable information pii compare traditional pc constrain display size mobile device impair ability provide user contextual information make user susceptible technique use.(citation feel phishingonmobiledevices)there approach   use mimic functionality   impersonate identity legitimate application e.g. use application and/or icon instal device prompt user sensitive information.(citation eset finance   send fake device notification user trigger display input prompt click additionally   display prompt run legitimate application trick user enter sensitive information malicious application legitimate application typically need know target application individual activity target application run foreground display prompt proper time abuse android accessibility feature determine application currently foreground know approach display prompt include start new activity run legitimate application.(citation feel phishingonmobiledevices)(citation hassell exploitingandroid android 10 place new restriction ability application start new activity application difficult utilize technique create application overlay window run legitimate application application hold ` system_alert_window ` permission create overlay window permission handle differently typical android permission certain condition automatically grant application instal google play store.(citation skycure accessibility ` system_alert_window ` permission associate ability create application overlay window expect deprecate future release android favor new api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt listing application instal device   use information software discovery](https://attack.mitre.org technique t1418 automate discovery shape follow behavior include fully infect target and/or attempt specific action    attempt enumerate application variety reason figure security measure present identify presence target application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt listing security application configuration instal device include thing mobile security product   use information security software discovery](https://attack.mitre.org technique t1418/001 automate discovery shape follow behavior include fully infect target and/or attempt specific action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  enumerate file directory search specific device location desire information filesystem   use information file directory discovery](https://attack.mitre.org technique t1420 automate discovery shape follow behavior include decide fully infect target and/or attempt specific action android linux file permission selinux policy typically stringently restrict access app take advantage privilege escalation exploit content external storage directory generally visible present concern sensitive datum inappropriately store ios security architecture generally restrict ability perform type file directory discovery](https://attack.mitre.org technique t1420 use escalate privilege</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt listing network connection compromise device currently access remote system query information network   typically accomplish utilize device apis collect information nearby network wi fi bluetooth cellular tower connection android query respective apis   ` wifiinfo ` information current wi fi connection nearby wi fi network query ` wifiinfo ` api require application hold ` access_fine_location ` permission ` bluetoothadapter ` information bluetooth device require application hold permission grant user runtime android version prior q application use ` telephonymanager.getneighboringcellinfo ` method q later application use ` telephonymanager.getallcellinfo ` method method require application hold ` access_fine_location ` permission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  look detail network configuration setting ip and/or mac address device access information discovery remote system   use information system network configuration discovery](https://attack.mitre.org technique t1422 automate discovery shape follow behavior include determine certain access target network action android detail onboard network interface accessible app ` java.net.networkinterface ` class previously android ` telephonymanager ` class gather telephony relate device identifier information imsi imei phone number start android 10 preloaded carrier default sms device profile owner application access telephony relate device identifier   ios gather network configuration information possible root access    use information system network configuration discovery](https://attack.mitre.org technique t1422 automate discovery shape follow behavior include determine certain access target network action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  check internet connectivity compromise system perform automate discovery accomplish numerous way ` adb shell netstat ` android.(citation adb_commands use result response request determine mobile device capable communicate -owned c2 server attempt connect result identify route redirector proxy server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  search information wi fi network network name password compromise system   use wi fi information discovery](https://attack.mitre.org tactic ta0032 credential access](https://attack.mitre.org tactic ta0031 activity support ongoing future campaign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt listing service run remote host include vulnerable remote software exploitation method acquire information include port scan vulnerability scan mobile device technique advantage mobile device access internal enterprise network local connectivity virtual private network vpn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt information running process device information obtain gain understanding common software application run device network   use information process discovery](https://attack.mitre.org technique t1424 automate discovery shape follow behavior include fully infect target and/or attempt specific action   recent android security enhancement difficult obtain list run process android 7 later way application obtain process list abuse elevated privilege android kernel utilize ` hidepid ` mount feature prior android 7 application utilize ` ps ` command examine ` /proc ` directory device.(citation android selinuxchange   ios application previously able use ` sysctl ` command obtain list running process functionality remove late io version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt detailed information device operating system hardware include version patch architecture   use information system information discovery](https://attack.mitre.org technique t1426 automate discovery shape follow behavior include fully infect target and/or attempt specific action   android information programmatically accessible application ` android.os.build ` class citation android build io restrictive information visible application typically application able query device model version io run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  exploit remote service enterprise server workstation resource gain unauthorized access internal system inside network   exploit remote service take advantage mobile device access internal enterprise network local connectivity virtual private network vpn exploitation software vulnerability occur take advantage programming error program service operating system software kernel execute -controlled code common goal post compromise exploitation remote service lateral movement enable access remote system need determine remote system vulnerable state network service scanning](https://attack.mitre.org technique t1423 discovery method look common vulnerable software deploy network lack certain patch indicate vulnerability security software detect contain remote exploitation server likely high value target lateral movement exploitation endpoint system risk provide advantage access additional resources.depending permission level vulnerable remote service achieve exploitation privilege escalation](https://attack.mitre.org technique t1404 result lateral movement exploitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  capture audio collect information leverage standard operating system apis mobile device example audio information   target include user conversation surrounding phone call sensitive information   android io default require application request device microphone access user    android device application hold ` record_audio ` permission access microphone ` capture_audio_output ` permission access audio output android allow party application hold ` capture_audio_output ` permission default privileged application distribute google device vendor access audio output   able gain access successfully elevate privilege ` capture_audio_output ` permission   pass ` mediarecorder.audiosource.voice_call ` constant ` mediarecorder.setaudiooutput ` allow capture voice uplink downlink.(citation manifest.permission   ios device application include ` nsmicrophoneusagedescription ` key ` info.plist ` file access microphone.(citation request auth media capture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  track device physical location use standard operating system apis malicious exploited application compromise device   android application hold ` access_coaurse_location ` ` access_fine_location ` permission provide access device physical location android 10 declaration ` access_background_location ` permission application manifest allow application request location access application run background utilize integration baidu map service retrieve geographical location location access permission obtained.(citation paloalto spydealer   io application include ` nslocationwheninuseusagedescription ` ` nslocationalwaysandwheninuseusagedescription ` and/or ` nslocationalwaysusagedescription ` key ` info.plist ` file depend extent request access location information ios 8.0 application ` requestwheninuseauthorization ` request access location information application use ` requestalwaysauthorization ` request access location information regardless application use elevated privilege   able access location datum explicit user consent ` com.apple.locationd.preauthorize ` entitlement key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use access cloud service e.g. google android device manager apple icloud find iphone enterprise mobility management emm)/mobile device management mdm server console track location mobile device manage service.(citation krebs location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  exploit lack authentication signal system network node track location mobile device impersonate node.(citation engel ss7)(citation engel ss7 2008)(citation 3gpp security)(citation positive ss7)(citation csric5 wg10 finalreport   provide victim msisdn phone number impersonate network internal node query subscriber information node   use datum collect hop eventually determine device geographical cell area near cell tower.(citation engel ss7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  communicate application layer protocol avoid detection network filtering blend exist traffic command mobile device result command embed protocol traffic mobile device server   utilize different protocol include web browsing transfer file electronic mail dns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  communicate application layer protocol associate web protocol traffic avoid detection network filtering blend exist traffic command remote mobile device result command embed protocol traffic mobile client server web protocol http https web traffic notification service native mobile message service google cloud message gcm newly firebase cloud message fcm gcm fcm way communication apple push notification service apns way server device   notification service leverage http s respective api commonly abuse android io respectively order blend routine device traffic make difficult enterprise inspect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  gain access mobile device transfer swap victim phone number -controlled sim card mobile device typical process follow   1 gather information victim phishing](https://attack.mitre.org technique t1660 social engineering data breach avenue 2 impersonate victim contact mobile carrier request sim swap example provide victim address mobile carrier authenticate request victim phone number transfer -controlled sim card   3 complete victim lose mobile datum text message phone call mobile device turn receive mobile datum intend victim    use intercepted sms message log online account use sms base authentication specifically   use sms base authentication log banking and/or cryptocurrency account transfer fund -controlle wallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  abuse accessibility feature android device steal sensitive datum spread malware device accessibility feature android design assist user disability perform variety task action block control lightbulbs change device user interface change font size adjust contract colors.(citation google_androidacsoverview example abuse accessibility feature overlay html object mimic legitimate login screen user type credential overlay html object send .(citation sahinsrlabs_flubot_dec2021   example malicious accessibility feature act keylogger keylogger monitor change edittext field send .(citation sahinsrlabs_flubot_dec2021 method attack describe keylogging](https://attack.mitre.org technique t1417/001 abuse accessibility features](https://attack.mitre.org technique t1453 capture overall abuse accessibility feature  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  gain access system user visit website normal course browsing technique user web browser typically target exploitation   use compromise website non exploitation behavior acquire application access token](https://attack.mitre.org technique t1550/001).multiple way deliver exploit code browser exist include legitimate website compromise inject form malicious code javascript iframe cross site scripting malicious ad pay serve legitimate ad provider build web application interface leveraged insertion kind object display web content contain script execute visit client e.g. forum post comment user controllable web content).often website visit specific community government particular industry region goal compromise specific user set user base share interest kind target attack refer strategic web compromise water hole attack know example occurring.(citation lookout stealthmango)typical drive compromise process:1 user visit website host control content.2 script automatically execute typically search version browser plugin potentially vulnerable version      user require assist process enable scripting active website component ignore warn dialog boxes.3 find vulnerable version exploit code deliver browser.4 exploitation successful code execution user system protection place     case second visit website initial scan require exploit code deliver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  device exploit copy malware device connect usb case lateral movement   utilize physical connection device compromised malicious charge station pc bypass application store requirement install malicious application directly.(citation lau mactans case initial access   attempt exploit device connection gain access datum store device.(citation krebs juicejacke example include   exploit insecure bootloader nexus 6 6p device usb gain ability perform action include intercept phone call intercept network traffic obtain device physical location.(citation ibm nexususb exploit weakly enforce security boundary android device google pixel 2 usb.(citation googleprojectzero oatmeal product cellebrite grayshift purportedly exploit ios device physical access data port unlock passcode.(citation computerworld iphonecracking</t>
-  </si>
-  <si>
-    <t>physical access mobile device seek bypass device lockscreen method exist accomplish include biometric spoofing biometric authentication attempt spoof mobile device biometric authentication mechanism io android partly mitigate attack require device passcode biometric unlock device device restart set random time.(citation srlab fingerprint)(citation thesun faceid unlock code bypass attempt brute force guess lockscreen passcode typically pin password include physically observe shoulder surfing device owner use lockscreen passcode mobile os vendor partly mitigate implement incremental backoff timer set number fail unlock attempt configurable device wipe fail unlock attempt vulnerability exploit technique periodically demonstrate exploit mobile device bypass lockscreen vulnerability generally patch device os vendor disclosed.(citation wire androidbypass)(citation kaspersky iosbypass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perform network denial service do attack degrade block availability target resource user network do perform exhaust network bandwidth service rely jam signal go come device network do occur able jam radio signal e.g. wi fi cellular gps device prevent communicate example jam cellular signal use handheld signal jammer jam device jammer operational range.(citation nist sp800187 usage cellular jamming document arrest report news.(citation cnet celljammer)(citation nytime celljam)(citation digitaltrend celljam)(citation arstechnica celljam</t>
+    <t xml:space="preserve">  perform software pack conceal code software packing method compress encrypt executable pack executable change file signature attempt avoid signature base detection decompression technique decompress executable code memory utility perform software packing call packer example packer FTT comprehensive list known packer available   create packing technique leave artifact know packer evade defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  download execute dynamic code include original application package installation technique primarily evade static analysis check pre publication scan official app store case advanced dynamic behavioral analysis technique detect behavior conjunction   technique detect malicious code download installation difficult Android dynamic code include native code Dalvik code JavaScript code utilize Android WebView  JavascriptInterface  capability ios dynamic code download execute 3rd party library JSPatch citation FireEye JSPatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  try access collect application datum resident device target popular application Facebook WeChat Gmail   mobile os sandboxing technique possible scenario   application store file unprotected external storage application store file internal storage directory insecure permission eg 777 gain root permission device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  abuse clipboard manager api obtain sensitive information copy device clipboard example password copy paste password manager application capture malicious application instal devicecitation Fahl Clipboard   Android application use  ClipboardManager onprimaryclipchangedlistener  api register listener monitor clipboard change start Android 10 application foreground set device default input method editor IME   ios accomplish access  uipasteboardgeneralstring  field start iOS 14 access clipboard user show system notification access text originate different application example user copy text iMessage Messages application notification read applicationname paste message text paste different application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use method capture user input obtain credential collect information normal device usage user provide credential location login page portal system dialog box input capture mechanism transparent user eg rely deceive user provide input believe genuine application prompt eg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  log user keystroke intercept credential information user user type method keylogging include Masquerading legitimate party keyboard record user keystrokesCitation Zeltser Keyboard Android ios user explicitly authorize use party keyboard app user advise use extreme caution grant authorization request abuse accessibility feature Android   abuse accessibility feature record keystroke register  accessibilityservice  class override  onaccessibilityevent  method listen  AccessibilityEvent typeviewtextchanged  event type event object pass function contain datum user type additional method keylogging possible root access available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mimic common operating system GUI component prompt user sensitive information seemingly legitimate prompt operate system instal application legitimate need prompt user sensitive information account credential bank account information personally identifiable Information PII compare traditional pc constrain display size mobile device impair ability provide user contextual information make user susceptible technique usecitation Felt phishingonmobiledevicesthere approach   use mimic functionality   impersonate identity legitimate application eg use application andor icon instal device prompt user sensitive informationcitation eset finance   send fake device notification user trigger display input prompt click additionally   display prompt run legitimate application trick user enter sensitive information malicious application legitimate application typically need know target application individual activity target application run foreground display prompt proper time   abuse Android accessibility feature determine application currently foreground known approach display prompt include start new activity run legitimate applicationcitation felt phishingonmobiledevicescitation Hassell ExploitingAndroid Android 10 place new restriction ability application start new activity application difficult utilize technique create application overlay window run legitimate application application hold  systemalertwindow  permission create overlay window permission handle differently typical Android permission certain condition automatically grant application instal Google Play storecitation skycure accessibility  systemalertwindow  permission associate ability create application overlay window expect deprecate future release Android favor new api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt listing application instal device   use information   automate discovery shape follow behavior include fully infect target andor attempt specific action    attempt enumerate application variety reason figure security measure present identify presence target application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt listing security application configuration instal device include thing mobile security product   use information   automate discovery shape follow behavior include fully infect target andor attempt specific action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  enumerate file directory search specific device location desire information filesystem   use information   automate discovery shape follow behavior include decide fully infect target andor attempt specific action Android Linux file permission selinux policy typically stringently restrict access app take advantage privilege escalation exploit content external storage directory generally visible present concern sensitive datum inappropriately store iOS security architecture generally restrict ability perform type   use escalate privilege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt listing network connection compromise device currently access remote system query information network   typically accomplish utilize device api collect information nearby network Wi Fi Bluetooth cellular tower connection Android query respective api    WifiInfo  information current Wi Fi connection nearby Wi Fi network query  WiFiInfo  API require application hold  ACCESSFINELOCATION  permission  BluetoothAdapter  information Bluetooth device require application hold permission grant user runtime Android version prior Q application use  telephonymanagergetneighboringcellinfo  method Q later application use  telephonymanagergetallcellinfo  method method require application hold  ACCESSFINELOCATION  permission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  look detail network configuration setting IP andor MAC address device access information discovery remote system   use information   automate discovery shape follow behavior include determine certain access target network action Android detail onboard network interface accessible app  javanet NetworkInterface  class previously Android  telephonymanager  class gather telephony relate device identifier information IMSI IMEI phone number start Android 10 preloaded carrier default SMS device profile owner application access telephony relate device identifier   ios gather network configuration information possible root access    use information   automate discovery shape follow behavior include determine certain access target network action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  check internet connectivity compromise system perform automate discovery accomplish numerous way  adb shell netstat  androidcitation adbcommands use result response request determine mobile device capable communicate owned C2 server attempt connect result identify route redirector proxy server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  search information Wi Fi network network name password compromise system   use Wi Fi information     activity support ongoing future campaign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt listing service run remote host include vulnerable remote software exploitation method acquire information include port scan vulnerability scan mobile device technique advantage mobile device access internal enterprise network local connectivity Virtual Private Network VPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt information running process device information obtain gain understanding common software application run device network   use information   automate discovery shape follow behavior include fully infect target andor attempt specific action   recent Android security enhancement difficult obtain list run process Android 7 later way application obtain process list abuse elevated privilege Android kernel utilize  hidepid  mount feature prior Android 7 application utilize  ps  command examine  proc  directory devicecitation Android SELinuxChanges   ios application previously able use  sysctl  command obtain list run process functionality remove later ios version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt detailed information device operating system hardware include version patch architecture   use information   automate discovery shape follow behavior include fully infect target andor attempt specific action   Android information programmatically accessible application  androidos build  class citation Android Build ios restrictive information visible application typically application able query device model version iOS run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  exploit remote service enterprise server workstation resource gain unauthorized access internal system inside network   exploit remote service take advantage mobile device access internal enterprise network local connectivity Virtual Private Network VPN exploitation software vulnerability occur take advantage programming error program service operating system software kernel execute controlled code common goal post compromise exploitation remote service lateral movement enable access remote system   need determine remote system vulnerable state   Discovery method look common vulnerable software deploy network lack certain patch indicate vulnerability security software detect contain remote exploitation server likely high value target lateral movement exploitation endpoint system risk provide advantage access additional resource depend permission level vulnerable remote service achieve   result lateral movement exploitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  capture audio collect information leverage standard operating system api mobile device example audio information   target include user conversation surrounding phone call sensitive information   Android iOS default require application request device microphone access user    Android device application hold  RECORDAUDIO  permission access microphone  CAPTUREAUDIOOUTPUT  permission access audio output Android allow party application hold  CAPTUREAUDIOOUTPUT  permission default privileged application distribute Google device vendor access audio output   able gain access successfully elevate privilege  CAPTUREAUDIOOUTPUT  permission   pass  MediaRecorder AudioSource voicecall  constant  mediarecordersetaudiooutput  allow capture voice uplink downlinkcitation manifestpermission   ios device application include  nsmicrophoneusagedescription  key  infoplist  file access microphonecitation Requesting Auth Media Capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  track device physical location use standard operating system api malicious exploited application compromise device   Android application hold  accesscoaurselocation   ACCESSFINELOCATION  permission provide access device physical location Android 10 declaration  accessbackgroundlocation  permission application manifest allow application request location access application run background utilize integration Baidu map service retrieve geographical location location access permission obtainedcitation PaloAlto SpyDealer   ios application include  nslocationwheninuseusagedescription   nslocationalwaysandwheninuseusagedescription  andor  nslocationalwaysusagedescription  key  infoplist  file depend extent request access location information ios 80 application  requestwheninuseauthorization  request access location information application use  requestalwaysauthorization  request access location information regardless application use elevated privilege   able access location datum explicit user consent  comapplelocationdpreauthorize  entitlement key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use access cloud service eg Google Android Device Manager Apple iCloud find iPhone enterprise mobility management emmmobile device management MDM server console track location mobile device manage servicecitation Krebs Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  exploit lack authentication signal system network node track location mobile device impersonate nodecitation Engel SS7Citation Engel SS7 2008Citation 3gpp securitycitation Positive SS7Citation CSRIC5 WG10 FinalReport   provide victim MSISDN phone number impersonate network internal node query subscriber information node   use datum collect hop eventually determine device geographical cell area near cell towercitation Engel SS7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  communicate application layer protocol avoid detection network filtering blend exist traffic command mobile device result command embed protocol traffic mobile device server   utilize different protocol include web browsing transfer file electronic mail DNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  communicate application layer protocol associate web protocol traffic avoid detection network filtering blend exist traffic command remote mobile device result command embed protocol traffic mobile client server web protocol HTTP http web traffic notification service native mobile message service Google Cloud Messaging GCM newly Firebase Cloud Messaging FCM GCM FCM way communication Apple Push Notification Service APNS way server device   notification service leverage HTTP S respective api commonly abuse Android ios respectively order blend routine device traffic make difficult enterprise inspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  gain access mobile device transfer swap victim phone number controlle SIM card mobile device typical process follow   1 gather information victim social engineering data breach avenue 2 impersonate victim contact mobile carrier request SIM swap example provide victim address mobile carrier authenticate request victim phone number transfer controlle SIM card   3 complete victim lose mobile datum text message phone call mobile device turn receive mobile datum intend victim    use intercept SMS message log online account use SMS base authentication specifically use SMS base authentication log banking andor cryptocurrency account transfer fund controlle wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  abuse accessibility feature Android device steal sensitive datum spread malware device accessibility feature Android design assist user disability perform variety task Action Blocks control lightbulbs change device user interface change font size adjust contract colorscitation googleandroidacsoverview example abuse accessibility feature overlay HTML object mimic legitimate login screen user type credential overlay HTML object send Citation SahinSRLabsFluBotDec2021   example malicious accessibility feature act keylogger keylogger monitor change EditText field send Citation SahinSRLabsFluBotDec2021 method attack describe   capture overall abuse accessibility feature  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  gain access system user visit website normal course browsing technique user web browser typically target exploitation   use compromise website non exploitation behavior acquire multiple way deliver exploit code browser exist include legitimate website compromise inject form malicious code JavaScript iFrames cross site scripting malicious ad pay serve legitimate ad provider build web application interface leveraged insertion kind object display web content contain script execute visit client eg forum post comment user controllable web contentoften website visit specific community government particular industry region goal compromise specific user set user base share interest kind target attack refer strategic web compromise water hole attack know example occurringcitation lookout stealthmangotypical drive compromise process1 user visit website host control content2 script automatically execute typically search version browser plugin potentially vulnerable version      user require assist process enable scripting active website component ignore warn dialog boxes3 find vulnerable version exploit code deliver browser4 exploitation successful code execution user system protection place     case second visit website initial scan require exploit code deliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  device exploit copy malware device connect usb case Lateral Movement   utilize physical connection device compromised malicious charge station pc bypass application store requirement install malicious application directlycitation Lau Mactans case Initial Access   attempt exploit device connection gain access datum store devicecitation Krebs JuiceJacking Examples include   exploit insecure bootloader Nexus 6 6p device usb gain ability perform action include intercept phone call intercept network traffic obtain device physical locationcitation IBM NexusUSB exploit weakly enforce security boundary Android device Google Pixel 2 usbcitation GoogleProjectZero OATmeal product Cellebrite Grayshift purportedly exploit ios device physical access data port unlock passcodecitation Computerworld iphonecracke</t>
+  </si>
+  <si>
+    <t>physical access mobile device seek bypass device lockscreen method exist accomplish include Biometric spoofing biometric authentication attempt spoof mobile device biometric authentication mechanism ios Android partly mitigate attack require device passcode biometric unlock device device restart set random timecitation srlab fingerprintcitation TheSun FaceID Unlock code bypass attempt brute force guess lockscreen passcode typically PIN password include physically observe shoulder surfing device owner use lockscreen passcode mobile os vendor partly mitigate implement incremental backoff timer set number fail unlock attempt configurable device wipe fail unlock attempt vulnerability exploit technique periodically demonstrate exploit mobile device bypass lockscreen vulnerability generally patch device os vendor disclosedcitation Wired androidbypasscitation Kaspersky iOSBypass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  perform Network Denial Service dos attack degrade block availability target resource user network dos perform exhaust network bandwidth service rely jam signal go come device Network dos occur able jam radio signal eg Wi Fi cellular GPS device prevent communicate example jam cellular signal use handheld signal jammer jam device jammer operational rangecitation NIST SP800187 Usage cellular jamming document arrest report newscitation CNET celljammercitation nytime celljamcitation digitaltrend celljamcitation Arstechnica Celljam</t>
   </si>
   <si>
     <t xml:space="preserve">  encrypt file store mobile device prevent user access extract monetary compensation victim exchange decryption decryption key ransomware render datum permanently inaccessible case key save transmit</t>
   </si>
   <si>
-    <t xml:space="preserve">  manipulate product product delivery mechanism prior receipt final consumer purpose datum system compromise.supply chain compromise place stage supply chain include manipulation development tool manipulation development environment manipulation source code repository public private manipulation source code open source dependency manipulation software update distribution mechanism compromise infect system image replacement legitimate software modify version sale modify counterfeit product legitimate distributor shipment interdictionwhile supply chain compromise impact component hardware software attacker look gain execution focus malicious addition legitimate software software distribution update channel target specific desire victim set malicious software distribute broad set consumer additional tactic specific victim   popular open source project dependency application target means add malicious code user dependency specifically widespread usage party advertising libraries.(citation grace advertisement)(citation nowsecure remotecode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  manipulate product product delivery mechanism prior receipt final consumer purpose datum system compromise application depend external software function properly popular open source project dependency application target means add malicious code user dependency.(citation grace advertisement</t>
+    <t xml:space="preserve">  manipulate product product delivery mechanism prior receipt final consumer purpose datum system compromise supply chain compromise place stage supply chain include Manipulation development tool manipulation development environment Manipulation source code repository public private Manipulation source code open source dependency Manipulation software update distribution mechanism compromise infect system image Replacement legitimate software modify version sale modify counterfeit product legitimate distributor Shipment interdictionwhile supply chain compromise impact component hardware software attacker look gain execution focus malicious addition legitimate software software distribution update channel target specific desire victim set malicious software distribute broad set consumer additional tactic specific victim   Popular open source project dependency application target means add malicious code user dependency specifically widespread usage party advertising librariescitation grace advertisementcitation NowSecure RemoteCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  manipulate product product delivery mechanism prior receipt final consumer purpose datum system compromise application depend external software function properly popular open source project dependency application target means add malicious code user dependencyCitation Grace Advertisement</t>
   </si>
   <si>
     <t xml:space="preserve">  manipulate hardware component product prior receipt final consumer purpose datum system compromise modify hardware firmware supply chain   insert backdoor consumer network difficult detect high degree control system</t>
@@ -2048,127 +2054,127 @@
     <t xml:space="preserve">  manipulate application software prior receipt final consumer purpose datum system compromise supply chain compromise software place number way include manipulation application source code manipulation update distribution mechanism software replace compile release modify version</t>
   </si>
   <si>
-    <t xml:space="preserve">  use exist legitimate external web service relay datum compromise system popular website social medium act mechanism c2 significant cover likelihood host network communicate prior compromise common service offer google twitter make easy hide expect noise web service provider commonly use ssl tls encryption give add level protection   use web service protect end c2 infrastructure discovery malware binary analysis enable operational resiliency infrastructure dynamically change  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use exist legitimate external web service host information point additional command control c2 infrastructure   post content know dead drop resolver web service embed obfuscate encode domain ip address infect victim reach redirect resolver   popular website social medium act mechanism c2 significant cover likelihood host network communicate prior compromise common service offer google twitter make easy hide expect noise web service provider commonly use ssl tls encryption give add level protection   use dead drop resolver protect end c2 infrastructure discovery malware binary analysis enable operational resiliency infrastructure dynamically change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use exist legitimate external web service channel send command receive output compromise system compromise system leverage popular website social medium host command control c2 instruction infected system send output command web service channel return traffic occur variety way depend web service utilize example return traffic form compromise system post comment forum issue pull request development project update document host web service send tweet   popular website social medium act mechanism c2 significant cover likelihood host network communicate prior compromise common service offer google twitter make easy hide expect noise web service provider commonly use ssl tls encryption give add level protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use exist legitimate external web service channel send command compromise system receive return output compromise system leverage popular website social medium host command control c2 instruction infected system opt send output command different c2 channel include distinct web service alternatively compromise system return output case want send instruction system want response   popular website social medium act mechanism c2 significant cover likelihood host network communicate prior compromise common service offer google twitter make easy hide expect noise web service provider commonly use ssl tls encryption give add level protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  generate network traffic protocol port pairing typically associate example https port 8088 port 587 oppose traditional port 443   change standard port protocol bypass filtering muddle analysis parsing network datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  leverage device camera gather information capture video recording image capture potentially specify interval lieu video file    malware script interact device camera available api provide operating system video image file write disk exfiltrate later technique differ screen capture](https://attack.mitre.org techniques t1513 use device camera video recording capture victim screen   android application hold ` android.permission.camera ` permission access camera ios application include ` nscamerausagedescription ` key ` info.plist ` file case user grant permission request application use camera device root jailbroken   able access camera knowledge user  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use screen capture collect additional information target device application run foreground user datum credential sensitive information application run background capture screenshot video application run foreground android ` mediaprojectionmanager ` generally require device user grant consent background application use android accessibility service capture screen content display foreground application.(citation lookout monokle root access android debug bridge adb access android ` screencap ` ` screenrecord ` command</t>
-  </si>
-  <si>
-    <t>malicious application inject input user interface mimic user interaction abuse android accessibility apis.[input injection](https://attack.mitre.org technique t1516 achieve following method mimic user click screen example steal money user paypal account.(citation android trojan steal paypal-2fa inject global action ` global_action_back ` programatically mimic physical button press trigger action behalf user insert input text field behalf user method legitimately auto fill text field application password manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  collect datum notification send operating system application notification contain sensitive datum time authentication code send sms email medium case credential access   attempt intercept time code send device   dismiss notification prevent user notice notification arrive trigger action button contain notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  explicitly employ know encryption algorithm conceal command control traffic rely inherent protection provide communication protocol despite use secure algorithm implementation vulnerable reverse engineering necessary secret key encode and/or generate malware sample configuration file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  employ know symmetric encryption algorithm conceal command control traffic rely inherent protection provide communication protocol symmetric encryption algorithm use key plaintext encryption ciphertext decryption common symmetric encryption algorithm include aes blowfish rc4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  employ know asymmetric encryption algorithm conceal command control traffic rely inherent protection provide communication protocol asymmetric cryptography know public key cryptography use keypair party public freely distribute private distribute asymmetric algorithm work sender encrypt datum receiver public key receiver decrypt datum private key ensure intended recipient read encrypt datum common public key encryption algorithm include rsa elgamal ecdsa.for efficiency protocol include ssl tls use symmetric cryptography connection establish use asymmetric cryptography establish transmit key protocol classify asymmetric cryptography](https://attack.mitre.org technique t1521/002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use ssl pinning](https://attack.mitre.org techniques t1521/003   protect c2 traffic intercept analyzed.[ssl pinning](https://attack.mitre.org techniques t1521/003   technique commonly utilize legitimate website ensure encrypt communication allow pre define certificate certificate present indicate device compromise traffic interception upstream issue benign usage common possible abuse technology protect malicious c2 traffic.in normal pin ssl validation client connect server https typically check server ssl tls certificate sign trust certificate authority device trust store certificate valid sign trust connection establish ssl pinning](https://attack.mitre.org techniques t1521/003 client configure trust specific ssl tls certificate public key rely device trust store mean server certificate sign trust client establish connection certificate key pinned.there type ssl pinning](https://attack.mitre.org techniques t1521/003 :1 	 certificate pin client store copy server certificate compare certificate receive ssl handshake certificate match client proceed connection approach work self sign certificates.2 	 public key pinning instead pin entire certificate client pin public key extract certificate flexible allow server renew certificate have update pin certificate break ssl connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  compress and/or encrypt datum collect prior exfiltration compress datum help obfuscate content minimize use network resource encryption hide information exfiltrate detection exfiltration conspicuous inspection defender   compression encryption prior exfiltration perform utility programming library custom algorithm  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  search local system source file system local database find file interest sensitive datum prior exfiltration    access local system datum include information store operating system requires escalate privilege example local system datum include authentication token device keyboard cache wi fi password photo android   attempt access file external storage require additional storage relate permission  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  abuse android ` startforeground ` api method maintain continuous sensor access begin android 9 idle application run background long access device sensor camera microphone gyroscope.(citation android sensorsoverview application retain sensor access run foreground android ` startforeground ` api method inform system user actively interact application kill requirement start foreground service show persistent notification user.(citation android foregroundservices)malicious application abuse ` startforeground ` api method continue run foreground present notification user pretend genuine application allow unhindered access device sensor assume permission previously granted.malicious application abuse ` startforeground ` api inform android system user actively interact application prevent kill low memory killer.(citation trendmicro yellow camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  transfer tool file external system compromise device facilitate follow action file copy external -controlle system command control channel   alternate protocol tool ftp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use android native development kit ndk write native function achieve execution binary function like system call traditional desktop operating system native code achieve execution low level normal android sdk calls.the ndk allow developer write native code c c++ compile directly machine code avoid intermediate language step compilation high level language like java typically java native interface jni component allow java function android app function native library choose use native function execute malicious code native action typically difficult analyze standard non native behavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  modify application instal device establish persistent access victim malicious modification legitimate application carry task application use.there multiple way inject malicious code application method take advantage device vulnerability know janu android vulnerability allow add extra byte apk application dex executable file affect file signature able add arbitrary byte valid application attacker seamlessly inject code genuine executable user knowledge rebuild application include malicious modification achieve decompile genuine application merge malicious code recompile action conceal modification application executable bypass user consent action include alter modification appear update exploiting vulnerability allow activity malicious application run inside system application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  delete alter send sms message user authorization hide c2 sms message spread malware external effects.this accomplish request ` receive_sm ` ` send_sm ` permission depend malware attempt app set default sm handler device ` sms_deliver ` broadcast intent register allow app write sms content provider content provider directly modify message database device allow malicious application ability insert modify delete arbitrary message device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  abuse task scheduling functionality facilitate initial recur execution malicious code android io apis library exist facilitate scheduling task execute specified date time interval.on android ` workmanager ` api allow asynchronous task schedule system ` workmanager ` introduce unify task scheduling android ` jobscheduler ` ` gcmnetworkmanager ` ` alarmmanager ` internally ` workmanager ` offer lot flexibility scheduling include periodically time constraint base e.g. device charging).on io ` nsbackgroundactivityscheduler ` api allow asynchronous task schedule system task schedule repeat non repeating system choose task execute app choose interval repeat task delay scheduling execution time task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use compromise device proxy server internet utilize proxy hide true ip address c2 server associate infrastructure destination network traffic masquerade traffic legitimate traffic originate compromise device evade ip base restriction alert certain service bank account social medium websites.the common type proxy sock proxy typically implement standard os level apis 3rd party library indication user android use ` proxy ` api programmatically establish sock proxy connection low level apis interact directly raw socket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  forward block phone call user authorization goal audio surveillance block forward call device owner c2 communication.several permission programmatically control phone call include ` answer_phone_call ` allow application answer incoming phone call ` call_phone ` allow application initiate phone go dialer interface ` process_outgoing_call ` allow application number dial outgoing option redirect different number abort altogether ` manage_own_call ` allow calling application manage call self manage ` connectionservice ` apis ` bind_telecom_connection_service ` require permission ` connectionservice ` ` write_call_log ` allow application write device log potentially hide malicious phone callswhen grant permission application phone open dialer application desire simply redirect user dialer phone number fill launch intent ` intent.action_dial ` require specific permission require user explicitly initiate use form input injection](https://attack.mitre.org technique t1516 programmatically initiate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  utilize hooking hide presence artifact associate behavior evade detection hooking modify return value datum structure system apis function call process typically involve 3rd party root framework xpose magisk system exploit pre existing root access include custom module root framework   hook system apis alter return value and/or system datum structure alter functionality visibility aspect system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  abuse command script interpreter execute command script binary interface language provide way interact computer system common feature different platform system come build command line interface scripting capability example android unix like os include basic unix shell](https://attack.mitre.org technique t1623/001 access android debug bridge adb java ` runtime ` package abuse technology way means execute arbitrary command command script embed initial access](https://attack.mitre.org tactic ta0027 payload deliver victim lure document secondary payload download exist c2   execute command interactive terminal shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  abuse unix shell command script execution unix shell underlie command prompt android ios device unix shell control aspect system certain command require elevated privilege accessible device root jailbroken unix shell support script enable sequential execution command typical programming operation conditional loop common us shell script include long repetitive task need run set command multiple system   abuse unix shell execute command payload interactive shell access command control channel lateral movement ssh   leverage shell script deliver execute multiple command victim payload persistence device root jailbroken   locate invoke superuser binary elevate privilege interact system root user dangerous level permission allow run special command modify protect system file  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  establish persistence system mechanism trigger execution base specific event mobile operating system mean subscribe event receive sms message device boot completion device activity   abuse mechanism means maintain persistent access victim automatically repeatedly execute malicious code gain access victim system   create modify event trigger point malicious content execute event trigger invoke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  establish persistence system mechanism trigger execution base specific event mobile operating system mean subscribe event receive sms message device boot completion device activity intent message pass android application system component application register receive broadcast intent runtime system wide intent deliver app certain event happen device network change user unlock screen malicious application trigger certain action app base broadcast intent receive addition android system intent malicious application register intent broadcast application allow malware respond base action application behavior typically indicate intimate knowledge potentially targeting specific device user application android 8 api level 26 broadcast intent behavior change limit implicit intent application register manifest case application register manifest long receive broadcast application register context specific broadcast receiver user actively app</t>
+    <t xml:space="preserve">  use exist legitimate external web service relay datum compromise system popular website social medium act mechanism C2 significant cover likelihood host network communicate prior compromise common service offer Google Twitter make easy hide expect noise web service provider commonly use SSL TLS encryption give add level protection   Use web service protect end C2 infrastructure discovery malware binary analysis enable operational resiliency infrastructure dynamically change  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use exist legitimate external web service host information point additional command control C2 infrastructure   post content know dead drop resolver web service embed obfuscate encode domain ip address infect victim reach redirect resolver   popular website social medium act mechanism C2 significant cover likelihood host network communicate prior compromise common service offer Google Twitter make easy hide expect noise web service provider commonly use SSL TLS encryption give add level protection   Use dead drop resolver protect end C2 infrastructure discovery malware binary analysis enable operational resiliency infrastructure dynamically change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use exist legitimate external web service channel send command receive output compromise system compromised system leverage popular website social medium host command control C2 instruction infected system send output command web service channel return traffic occur variety way depend web service utilize example return traffic form compromise system post comment forum issue pull request development project update document host web service send Tweet   popular website social medium act mechanism C2 significant cover likelihood host network communicate prior compromise common service offer Google Twitter make easy hide expect noise web service provider commonly use SSL TLS encryption give add level protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use exist legitimate external web service channel send command compromise system receive return output compromise system leverage popular website social medium host command control C2 instruction infected system opt send output command different C2 channel include distinct web service alternatively compromise system return output case want send instruction system want response   popular website social medium act mechanism C2 significant cover likelihood host network communicate prior compromise common service offer Google Twitter make easy hide expect noise web service provider commonly use SSL TLS encryption give add level protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  generate network traffic protocol port pairing typically associate example http port 8088 port 587 oppose traditional port 443   change standard port protocol bypass filtering muddle analysis parsing network datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  leverage device camera gather information capture video recording image capture potentially specify interval lieu video file    Malware script interact device camera available api provide operating system video image file write disk exfiltrate later technique differ   use device camera video recording capture victim screen   Android application hold  androidpermission camera  permission access camera ios application include  nscamerausagedescription  key  infoplist  file case user grant permission request application use camera device root jailbroken   able access camera knowledge user  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use screen capture collect additional information target device application run foreground user datum credential sensitive information application run background capture screenshot video application run foreground Android  mediaprojectionmanager  generally require device user grant consent background application use Android accessibility service capture screen content display foreground applicationcitation Lookout Monokle root access Android Debug Bridge adb access Android  screencap   screenrecord  command</t>
+  </si>
+  <si>
+    <t>malicious application inject input user interface mimic user interaction abuse Android accessibility api achieve follow method mimicking user click screen example steal money user PayPal accountCitation android trojan steal paypal2fa inject global action  globalactionback  programatically mimic physical button press trigger action behalf user insert input text field behalf user method legitimately auto fill text field application password manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  collect datum notification send operating system application notification contain sensitive datum time authentication code send SMS email medium case Credential Access   attempt intercept time code send device   dismiss notification prevent user notice notification arrive trigger action button contain notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  explicitly employ know encryption algorithm conceal command control traffic rely inherent protection provide communication protocol despite use secure algorithm implementation vulnerable reverse engineering necessary secret key encode andor generate malware sample configuration file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  employ know symmetric encryption algorithm conceal command control traffic rely inherent protection provide communication protocol symmetric encryption algorithm use key plaintext encryption ciphertext decryption common symmetric encryption algorithm include AES Blowfish rc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  employ know asymmetric encryption algorithm conceal command control traffic rely inherent protection provide communication protocol asymmetric cryptography know public key cryptography use keypair party public freely distribute private distribute asymmetric algorithm work sender encrypt datum receiver public key receiver decrypt datum private key ensure intended recipient read encrypt datum common public key encryption algorithm include RSA ElGamal ECDSAFor efficiency protocol include SSL TLS use symmetric cryptography connection establish use asymmetric cryptography establish transmit key protocol classify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use    protect C2 traffic intercept analyze   technique commonly utilize legitimate website ensure encrypt communication allow pre define certificate certificate present indicate device compromise traffic interception upstream issue benign usage common possible abuse technology protect malicious C2 traffic normal pin SSL validation client connect server http typically check server SSL TLS certificate sign trust Certificate Authority device trust store certificate valid sign trust connection establish   client configure trust specific SSL TLS certificate public key rely device trust store mean server certificate sign trust client establish connection certificate key pin type   1  Certificate Pinning client store copy server certificate compare certificate receive SSL handshake certificate match client proceed connection approach work self sign certificates2  public Key Pinning instead pin entire certificate client pin public key extract certificate flexible allow server renew certificate have update pin certificate break SSL connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  compress andor encrypt datum collect prior exfiltration compress datum help obfuscate content minimize use network resource encryption hide information exfiltrate detection exfiltration conspicuous inspection defender   compression encryption prior exfiltration perform utility programming library custom algorithm  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  search local system source file system local database find file interest sensitive datum prior exfiltration    access local system datum include information store operating system requires escalate privilege example local system datum include authentication token device keyboard cache Wi Fi password photo Android   attempt access file external storage require additional storage relate permission  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  abuse Android  startforeground  api method maintain continuous sensor access begin Android 9 idle application run background long access device sensor camera microphone gyroscopecitation Android SensorsOverview Applications retain sensor access run foreground Android  startforeground  api method inform system user actively interact application kill requirement start foreground service show persistent notification usercitation android foregroundservicesmalicious application abuse  startforeground  api method continue run foreground present notification user pretend genuine application allow unhindered access device sensor assume permission previously grant malicious application abuse  startforeground  api inform Android system user actively interact application prevent kill low memory killercitation TrendMicro Yellow Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  transfer tool file external system compromise device facilitate follow action file copy external controlle system command control channel   alternate protocol tool FTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use Android Native Development Kit NDK write native function achieve execution binary function like system call traditional desktop operating system native code achieve execution low level normal Android sdk call NDK allow developer write native code C C compile directly machine code avoid intermediate language step compilation high level language like Java typically Java Native Interface JNI component allow Java function Android app function native library choose use native function execute malicious code native action typically difficult analyze standard non native behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  modify application instal device establish persistent access victim malicious modification legitimate application carry task application use multiple way inject malicious code application method take advantage device vulnerability know Janus Android vulnerability allow add extra byte APK application DEX executable file affect file signature able add arbitrary byte valid application attacker seamlessly inject code genuine executable user knowledge rebuild application include malicious modification achieve decompile genuine application merge malicious code recompile action conceal modification application executable bypass user consent action include alter modification appear update exploiting vulnerability allow activity malicious application run inside system application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  delete alter send SMS message user authorization hide C2 SMS message spread malware external effect accomplish request  receivesms   SENDSMS  permission depend malware attempt app set default SMS handler device  smsdeliver  broadcast intent register allow app write SMS content provider content provider directly modify message database device allow malicious application ability insert modify delete arbitrary message device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  abuse task scheduling functionality facilitate initial recur execution malicious code Android iOS api library exist facilitate scheduling task execute specified date time interval Android  WorkManager  API allow asynchronous task schedule system  WorkManager  introduce unify task scheduling Android  JobScheduler   gcmnetworkmanager   AlarmManager  internally  WorkManager  offer lot flexibility scheduling include periodically time constraint base eg device chargingOn ios  NSBackgroundActivityScheduler  API allow asynchronous task schedule system task schedule repeat non repeating system choose task execute app choose interval repeat task delay scheduling execution time task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use compromise device proxy server internet utilize proxy hide true IP address C2 server associate infrastructure destination network traffic masquerade traffic legitimate traffic originate compromise device evade IP base restriction alert certain service bank account social medium website common type proxy SOCKS proxy typically implement standard os level api 3rd party library indication user Android use  proxy  api programmatically establish SOCKS proxy connection low level api interact directly raw socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  forward block phone call user authorization goal audio surveillance block forward call device owner C2 communication permission programmatically control phone call include  answerphonecall  allow application answer incoming phone call  callphone  allow application initiate phone go Dialer interface  processoutgoingcall  allow application number dial outgoing option redirect different number abort altogether  MANAGEOWNCALLS  allow calling application manage call self manage  ConnectionService  api  bindtelecomconnectionservice  require permission  ConnectionService   WRITECALLLOG  allow application write device log potentially hide malicious phone callswhen grant permission application phone open dialer application desire simply redirect user dialer phone number fill launch intent  intent ACTIONDIAL  require specific permission require user explicitly initiate use form   programmatically initiate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  utilize hooking hide presence artifact associate behavior evade detection hooking modify return value datum structure system api function call process typically involve 3rd party root framework Xposed Magisk system exploit pre existing root access include custom module root framework   hook system api alter return value andor system datum structure alter functionality visibility aspect system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  abuse command script interpreter execute command script binary interface language provide way interact computer system common feature different platform system come build command line interface scripting capability example Android UNIX like os include basic   access Android Debug Bridge ADB Java  runtime  package abuse technology way means execute arbitrary command command script embed   payload deliver victim lure document secondary payload download exist c2   execute command interactive terminal shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  abuse Unix shell command script execution Unix shell underlie command prompt Android ios device Unix shell control aspect system certain command require elevated privilege accessible device root jailbroken Unix shell support script enable sequential execution command typical programming operation conditional loop common us shell script include long repetitive task need run set command multiple system   abuse Unix shell execute command payload interactive shell access command control channel lateral movement SSH   leverage shell script deliver execute multiple command victim payload persistence device root jailbroken   locate invoke superuser binary elevate privilege interact system root user dangerous level permission allow run special command modify protect system file  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  establish persistence system mechanism trigger execution base specific event mobile operating system mean subscribe event receive SMS message device boot completion device activity   abuse mechanism means maintain persistent access victim automatically repeatedly execute malicious code gain access victim system   create modify event trigger point malicious content execute event trigger invoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  establish persistence system mechanism trigger execution base specific event mobile operating system mean subscribe event receive SMS message device boot completion device activity intent message pass Android application system component application register receive broadcast intent runtime system wide intent deliver app certain event happen device network change user unlock screen malicious application trigger certain action app base broadcast intent receive addition Android system intent malicious application register intent broadcast application allow malware respond base action application behavior typically indicate intimate knowledge potentially targeting specific device user application Android 8 api level 26 broadcast intent behavior change limit implicit intent application register manifest case application register manifest long receive broadcast application register context specific broadcast receiver user actively app</t>
   </si>
   <si>
     <t xml:space="preserve">  execute malicious payload hijack way operate system run application hijacking execution flow purpose persistence hijack execution reoccur time way   hijack flow execution primary way manipulate operating system locate program execute operating system locate library program intercept location operating system look program resource file directory poison include malicious payload</t>
   </si>
   <si>
-    <t xml:space="preserve">  execute malicious payload hijack way operating system run application hijacking execution flow purpose persistence hijack execution reoccur later point time android   overwrite standard os api library malicious alternative hook core function achieve persistence code execute time overwritten api function call app infected device</t>
+    <t xml:space="preserve">  execute malicious payload hijack way operating system run application hijacking execution flow purpose persistence hijack execution reoccur later point time Android   overwrite standard os api library malicious alternative hook core function achieve persistence code execute time overwritten api function call app infected device</t>
   </si>
   <si>
     <t xml:space="preserve">  circumvent mechanism design control elevated privilege gain high level permission modern system contain native elevation control mechanism intend limit privilege user gain machine authorization grant specific user perform task designate high risk   use method advantage build control mechanism escalate privilege system</t>
   </si>
   <si>
-    <t xml:space="preserve">  abuse android device administration api obtain high degree control device abuse api   perform nefarious action reset device password endpoint denial service](https://attack.mitre.org technique t1642 factory reset device file deletion](https://attack.mitre.org technique t1630/002 delete trace malware disable device camera difficult uninstall app.device administrator approve user runtime system popup show action request app conjunction technique input injection](https://attack.mitre.org technique t1516 app programmatically grant administrator permission user input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use execution guardrail constrain execution action base supply environment specific condition expect present target guardrail ensure payload execute intended target reduce collateral damage campaign value provide target system environment use guardrail include environment information location.guardrail prevent exposure capability environment intend compromise operate use guardrail distinct typical system checks](https://attack.mitre.org technique t1633/001 use system checks](https://attack.mitre.org technique t1633/001 involve check known sandbox value continue execution match use guardrail involve check expect target specific value continue execution match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use device geographical location limit certain malicious behavior example malware operator limit distribution second stage payload certain geographic regions.[geofencing](https://attack.mitre.org technique t1627/001   accomplish persuade user grant application permission access location service application collect process exfiltrate device location perform location base action cease malicious behavior show region specific advertisement method accomplish   geofencing](https://attack.mitre.org technique t1627/001   android use build geofencing api automatically trigger certain behavior device enter exit specify radius geographical location similar     geofencing](https://attack.mitre.org technique t1627/001 method require user grant ` access_fine_location ` ` access_background_location ` permission require application target android 10 api level 29 high android 11 introduce additional permission control restrict background location collection base user permission choice runtime additional control include allow app effectively prohibit background location collection   similarly io developer use build apis setup execute geofencing depend use case app need   ` requestwheninuseauthorization `     ` requestalwaysauthorization ` depend access location service require similar android user option limit application access device location include time use application run foreground   geofencing](https://attack.mitre.org technique t1627/001   prevent exposure capability environment intend compromise operate example location datum limit malware spread and/or capability potentially evade application analysis environment ex malware analysis outside target geographic area malicious usage include show language specific input prompt and/or advertisement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt hide artifact associate behavior evade detection mobile operating system feature developer apis hide artifact application launcher icon apis legitimate usage hide icon avoid application drawer clutter application usable interface   abuse feature apis hide artifact user evade detection</t>
-  </si>
-  <si>
-    <t>malicious application suppress icon display user application launcher hide fact instal difficult user uninstall application hide application icon programmatically require special permission behavior see bankbot spy banker family malware.(citation android trojan steal paypal-2fa)(citation sunny steal credentials)(citation bankbot spybanker begin android 10 change introduce inhibit malicious application ability hide icon app system app request permission launcher activity application icon fully hide device fully manage application work profile icon fully hide synthesized activity show launcher icon represent app detail page system setting user click synthesized activity launcher take application detail page system setting</t>
+    <t xml:space="preserve">  abuse Android device administration api obtain high degree control device abuse API   perform nefarious action reset device password factory reset device   delete trace malware disable device camera difficult uninstall app device administrator approve user runtime system popup show action request app conjunction technique app programmatically grant administrator permission user input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use execution guardrail constrain execution action base supply environment specific condition expect present target Guardrails ensure payload execute intended target reduce collateral damage campaign value provide target system environment use guardrail include environment information location Guardrails prevent exposure capability environment intend compromise operate use guardrail distinct typical use   involve check known sandbox value continue execution match use guardrail involve check expect target specific value continue execution match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use device geographical location limit certain malicious behavior example malware operator limit distribution second stage payload certain geographic region  accomplish persuade user grant application permission access location service application collect process exfiltrate device location perform location base action cease malicious behavior show region specific advertisement method accomplish  Android use build Geofencing API automatically trigger certain behavior device enter exit specify radius geographical location similar     method require user grant  ACCESSFINELOCATION   ACCESSBACKGROUNDLOCATION  permission require application target Android 10 api level 29 high Android 11 introduce additional permission control restrict background location collection base user permission choice runtime additional control include allow app effectively prohibit background location collection   similarly ios developer use build api setup execute geofencing depend use case app need   requestwheninuseauthorization     requestalwaysauthorization  depend access location service require similar Android user option limit application access device location include time use application run foreground   prevent exposure capability environment intend compromise operate example location datum limit malware spread andor capability potentially evade application analysis environment ex malware analysis outside target geographic area malicious usage include show language specific input prompt andor advertisement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt hide artifact associate behavior evade detection mobile operating system feature developer api hide artifact application launcher icon api legitimate usage hide icon avoid application drawer clutter application usable interface   abuse feature api hide artifact user evade detection</t>
+  </si>
+  <si>
+    <t>malicious application suppress icon display user application launcher hide fact instal difficult user uninstall application hide application icon programmatically require special permission behavior see BankBot Spy Banker family malwarecitation android trojan steal paypal2facitation sunny steal credentialscitation bankbot spybanker begin Android 10 change introduce inhibit malicious application ability hide icon app system app request permission launcher activity application icon fully hide device fully manage application work profile icon fully hide synthesized activity show launcher icon represent app detail page system setting user click synthesized activity launcher take application detail page system setting</t>
   </si>
   <si>
     <t xml:space="preserve">  attempt avoid detection hide malicious behavior user modification likely remain instal device long allow continue operate device way accomplish method device sensor utilize motion sensor device accelerometer gyroscope application detect device interact way application continue run device use cease operate user device hide indicate malicious activity ongoing access sensor way require permission user completely transparent</t>
   </si>
   <si>
-    <t xml:space="preserve">  attempt hide multimedia file user   conceal capture file picture video and/or screenshot later exfiltrate file   specific android device ` .nomedia ` file present folder multimedia file folder visible user gallery application additionally application ask scan folder ` .nomedia ` file effectively make folder appear invisible user   technique stalkerware spyware application  </t>
+    <t xml:space="preserve">  attempt hide multimedia file user   conceal capture file picture video andor screenshot later exfiltrate file   Specific Android device  nomedia  file present folder multimedia file folder visible user Gallery application additionally application ask scan folder  nomedia  file effectively make folder appear invisible user   technique stalkerware spyware application  </t>
   </si>
   <si>
     <t xml:space="preserve">  maliciously modify component victim environment hinder disable defensive mechanism involve impair preventative defense anti virus detection capability defender use audit activity identify malicious behavior span native defense supplemental capability instal user mobile endpoint administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">  abuse android device administration api prevent user uninstalle target application early version android device administrator application need administration capability explicitly deactivate user application uninstalled later update user deactivate uninstall administrator application step abuse device accessibility apis prevent removal set apis allow application perform certain action behalf user programmatically determine show screen malicious application monitor device screen certain modal e.g. confirmation modal uninstall application inject screen input button tap close modal example android ` performglobalaction(int ` api utilize prevent user remove malicious application device installation user want uninstall malicious application case occur prevent user remove application case 1 integer argument pass api ` 2 ` ` global_action_home ` malicious application direct user home screen setting screen case 2 integer argument pass api ` 1 ` ` global_action_back ` malicious application emulate press event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  seek inhibit user interaction lock legitimate user device typically accomplish request device administrator permission lock screen ` devicepolicymanager.locknow ` novel technique lock user device observe show persistent overlay carefully craft notification screen lock html page foreground technique difficult typically require boot device safe mode uninstall malware.prior android 7 device administrator able reset device lock passcode prevent user unlock device release android 7 introduce update allow device profile owner e.g. mdms reset device passcode</t>
+    <t xml:space="preserve">  abuse Android device administration api prevent user uninstalle target application early version Android device administrator application need administration capability explicitly deactivate user application uninstalled later update user deactivate uninstall administrator application step abuse device accessibility api prevent removal set APIs allow application perform certain action behalf user programmatically determine show screen malicious application monitor device screen certain modal eg confirmation modal uninstall application inject screen input button tap close modal example Android  performglobalactionint  API utilize prevent user remove malicious application device installation user want uninstall malicious application case occur prevent user remove application case 1 integer argument pass api  2   GLOBALACTIONHOME  malicious application direct user home screen setting screen case 2 integer argument pass api  1   globalactionback  malicious application emulate press event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  seek inhibit user interaction lock legitimate user device typically accomplish request device administrator permission lock screen  devicepolicymanagerlocknow  novel technique lock user device observe show persistent overlay carefully craft notification screen lock html page foreground technique difficult typically require boot device safe mode uninstall malware prior Android 7 device administrator able reset device lock passcode prevent user unlock device release Android 7 introduce update allow device profile owner eg MDMs reset device passcode</t>
   </si>
   <si>
     <t xml:space="preserve">  disable security tool avoid potential detection tool activity form disable security software modify selinux configuration method interfere security tool scan report information typically abuse device administrator permission system exploit gain root access device modify protect system file</t>
@@ -2180,25 +2186,25 @@
     <t xml:space="preserve">  include functionality malware uninstall malicious application device achieve   abuse device owner permission perform silent uninstallation device owner api call abuse root permission delete file filesystem abuse accessibility service require send intent system request uninstallation abuse accessibility service click proper place screen confirm uninstallation</t>
   </si>
   <si>
-    <t xml:space="preserve">  wipe device delete individual file manipulate external outcome hide activity application administrator access fully wipe device individual file require special permission delete depend storage location store datum include variety file format office file database store email custom file format impact file deletion depend type datum goal objective include delete update file evade detection delete attacker specify file impact</t>
+    <t xml:space="preserve">  wipe device delete individual file manipulate external outcome hide activity application administrator access fully wipe device individual file require special permission delete depend storage location store datum include variety file format Office file database store email custom file format impact file deletion depend type datum goal objective include delete update file evade detection delete attacker specify file impact</t>
   </si>
   <si>
     <t>use knowledge technique security software evade detection example mobile security product perform compromise device detection search particular artifact installed su binary check evade name binary similarly polymorphic code technique evade signature base detection</t>
   </si>
   <si>
-    <t xml:space="preserve">  inject code process evade process base defense elevate privilege process injection method execute arbitrary code address space separate live process run code context process allow access process memory system network resource possibly elevate privilege execution process injection evade detection security product execution mask legitimate process android io legitimate way achieve process injection way possible abuse exist root access exploit vulnerability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  inject malicious code process ptrace process trace system call evade process base defense possibly elevate privilege ptrace system injection method execute arbitrary code address space separate live process   ptrace system injection involve attach modify running process ptrace system enable debug process observe control process individual thread include change memory register value ptrace system injection commonly perform write arbitrary code running process e.g. ` malloc ` invoke memory ` ptrace_setreg ` set register contain instruction execute ptrace system injection ` ptrace_poketext`/`ptrace_pokedata ` copy datum specific address target process memory e.g. current address instruction   ptrace system injection possible target process high privilege system non child process   run code context process allow access process memory system network resource possibly elevate privilege execution ptrace system injection evade detection security product execution mask legitimate process</t>
+    <t xml:space="preserve">  inject code process evade process base defense elevate privilege process injection method execute arbitrary code address space separate live process run code context process allow access process memory system network resource possibly elevate privilege execution process injection evade detection security product execution mask legitimate process Android ios legitimate way achieve process injection way possible abuse exist root access exploit vulnerability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  inject malicious code process ptrace process trace system call evade process base defense possibly elevate privilege ptrace system injection method execute arbitrary code address space separate live process   ptrace system injection involve attach modify running process ptrace system enable debug process observe control process individual thread include change memory register value ptrace system injection commonly perform write arbitrary code running process eg  malloc  invoke memory  ptracesetreg  set register contain instruction execute ptrace system injection  PTRACEPOKETEXTPTRACEPOKEDATA  copy datum specific address target process memory eg current address instruction   ptrace system injection possible target process high privilege system non child process   run code context process allow access process memory system network resource possibly elevate privilege execution ptrace system injection evade detection security product execution mask legitimate process</t>
   </si>
   <si>
     <t xml:space="preserve">  undermine security control warn user untrusted activity prevent execution untrusted application operate system security product contain mechanism identify program website possess level trust example feature include app allow run sign valid code signing certificate os prompt alert user app come untrusted source get indication connect untrusted site method use depend specific mechanism seek subvert</t>
   </si>
   <si>
-    <t xml:space="preserve">  modify code signing policy enable execution application sign unofficial unknown key code signing provide level authenticity app developer guarantee program tamper come official source security control include enforcement mechanism ensure valid sign code run device mobile device generally enable security control default prevent installation unknown application android   modify policy number way include input injection](https://attack.mitre.org technique t1516 malicious configuration profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  employ mean detect avoid virtualization analysis environment include change behavior check presence artifact indicative virtual machine environment vme sandbox detect vme alter malware behavior disengage victim conceal core function payload search vme artifact drop payload   use information learn virtualization sandbox evasion](https://attack.mitre.org technique t1633 automate discovery shape follow behavior   use method accomplish virtualization sandbox evasion](https://attack.mitre.org technique t1633 check system artifact associate analysis virtualization   check legitimate user activity help determine analysis environment</t>
+    <t xml:space="preserve">  modify code signing policy enable execution application sign unofficial unknown key code signing provide level authenticity app developer guarantee program tamper come official source security control include enforcement mechanism ensure valid sign code run device mobile device generally enable security control default prevent installation unknown application Android   modify policy number way include   malicious configuration profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  employ mean detect avoid virtualization analysis environment include change behavior check presence artifact indicative virtual machine environment VME sandbox detect VME alter malware behavior disengage victim conceal core function payload search VME artifact drop payload   use information learn   automate discovery shape follow behavior   use method accomplish   check system artifact associate analysis virtualization   check legitimate user activity help determine analysis environment</t>
   </si>
   <si>
     <t xml:space="preserve">  employ system check detect avoid virtualization analysis environment include change behavior check presence artifact indicative virtual environment sandbox detect virtual environment alter malware behavior disengage victim conceal core function implant search virtualization artifact drop secondary additional payload check include generic system property host domain sample network traffic   check network adapter address cpu core count available memory drive size hardware check presence motion sensor gather evidence indicative virtual environment   query specific reading device</t>
@@ -2207,64 +2213,64 @@
     <t xml:space="preserve">  search common password storage location obtain user credential password store place device depend operating system application hold credential specific application store password easy user manage maintain credential obtain perform lateral movement access restrict information</t>
   </si>
   <si>
-    <t xml:space="preserve">  collect keychain datum ios device acquire credential keychain build way io track user password credential service feature wi fi password website secure note certificate private key vpn credential device keychain database store outside application sandbox prevent unauthorized access raw datum standard ios apis allow application access keychain contain database utilize privilege escalation exploit exist root access   access entire encrypt database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  steal user application access token means acquire credential access remote system resource occur social engineering uri hijacking typically require user action grant access system open dialogue   application access token authorized api request behalf user commonly way access resource cloud base application software service saas).(citation auth0 use access token secure apis sept 2019 oauth commonly implement framework issue token user access system application desire access cloud base service protect apis gain entry oauth 2.0 variety authorization protocol example commonly sequence microsoft authorization code grant flow.(citation microsoft oauth code authorization flow june 2019 oauth access token enable party application interact resource contain user datum way request require user credential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  register uniform resource identifier uris intercept sensitive datum application regularly register uris operating system act response handler action log app external account single sign allow redirection specific uri intercept application register uri use genuine application   able intercept datum intend genuine application perform phishe attack genuine application intercept datum include oauth authorization code token gain access protect resources.(citation ietf pkce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  utilize standard operating system apis collect datum permission back data store device calendar contact list permission need declare ahead time android include application manifest ios include application ` info.plist ` file    case user require grant access data store application try access recent os version vendor introduce additional privacy control user ability grant permission application application actively user   device jailbroken root   able access protect user data](https://attack.mitre.org technique t1636 user knowledge approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  utilize standard operating system apis gather calendar entry datum android accomplish calendar content provider ios accomplish ` eventkit ` framework   device jailbroken root   able access calendar entries](https://attack.mitre.org technique t1636/001 user knowledge approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  utilize standard operating system apis gather log datum android accomplish log content provider ios provide standard api access log   device jailbroken root   able access log](https://attack.mitre.org technique t1636/002 user knowledge approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  utilize standard operating system apis gather contact list datum android accomplish contact content provider ios accomplish ` contact ` framework   device jailbroken root   able access contact list](https://attack.mitre.org technique t1636/003 user knowledge approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  utilize standard operating system apis gather sms message android accomplish sms content provider ios provide standard api access sms message device jailbroken root   able access sms messages](https://attack.mitre.org technique t1636/004 user knowledge approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  utilize standard operating system apis gather account datum android accomplish accountmanager api example   use ` getaccount ` method list accounts.(citation android_accountmanager_feb2025 ios accomplish keychain service   device jailbroken root   able access accounts](https://attack.mitre.org technique t1636/005 user knowledge approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  dynamically establish connection command control infrastructure evade common detection remediation achieve malware share common algorithm infrastructure us receive malware communication algorithm dynamically adjust parameter domain ip address port number malware use command control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use domain generation algorithms](https://attack.mitre.org technique t1637/001 dgas procedurally generate domain name us command control communication    malicious application distribution.dga increase difficulty defender block track command control channel potentially thousand domain malware check instruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt position networked device support follow behavior transmit datum manipulation](https://attack.mitre.org technique t1565/002 endpoint denial service](https://attack.mitre.org technique t1642    -in middle](https://attack.mitre.org technique t1638 achieve mechanism example malicious application register vpn client effectively redirect device traffic -owned resource register vpn client require user consent android io additionally special entitlement grant apple need ios device alternatively malicious application escalation privilege utilize privilege gain access network traffic     specific android device -in disk type aitm attack monitor manipulate datum exchange application external storage.(citation mitd_kaspersky)(citation mitd_checkpoint)(citation mitd_checkpoint_research accomplish malicious application first request access multimedia file device ` read_external storage ` ` write_external_storage ` application read datum device and/or write malware device request access common maliciously   access file sensitive datum abuse permission multiple application show vulnerable attack scrutiny permission input validation mitigate attack     outside mobile device   able capture traffic employ rogue base station wi fi access point device allow capture network traffic leave device flow destination local network enterprise technique arp cache poisoning](https://attack.mitre.org technique t1557/002 dhcp spoofing](https://attack.mitre.org technique t1557/003    application properly encrypt network traffic sensitive datum accessible depend point capture example properly implement apple application transport security at android network security configuration nsc prevent sensitive datum leaks.(citation nsc_android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  steal datum exfiltrate different protocol exist command control channel datum send alternate network location main command control server alternate protocol include ftp smtp http s dns smb network protocol main command control channel different protocol channel include web service cloud storage   opt encrypt and/or obfuscate alternate channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  steal datum exfiltrate un encrypt network protocol exist command control channel datum send alternate network location main command control server opt obfuscate datum use encryption network protocol natively unencrypted http ftp dns   employ custom publicly available encoding compression algorithm base64 embed datum protocol header field</t>
+    <t xml:space="preserve">  collect keychain datum ios device acquire credential keychain build way iOS track user password credential service feature Wi Fi password website secure note certificate private key vpn credential device keychain database store outside application sandbox prevent unauthorized access raw datum standard iOS api allow application access keychain contain database utilize privilege escalation exploit exist root access   access entire encrypt database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  steal user application access token means acquire credential access remote system resource occur social engineering URI hijacking typically require user action grant access system open dialogue   application access token authorized api request behalf user commonly way access resource cloud base application software service saascitation auth0 use Access Tokens secure APIs Sept 2019 OAuth commonly implement framework issue token user access system application desire access cloud base service protect api gain entry OAuth 20 variety authorization protocol example commonly sequence Microsoft Authorization Code Grant flowcitation Microsoft OAuth Code Authorization flow June 2019 OAuth access token enable party application interact resource contain user datum way request require user credential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  register Uniform Resource Identifiers URIs intercept sensitive datum application regularly register URIs operating system act response handler action log app external account single sign allow redirection specific URI intercept application register URI use genuine application   able intercept datum intend genuine application perform phishe attack genuine application intercept datum include OAuth authorization code token gain access protect resourcescitation IETF PKCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  utilize standard operating system api collect datum permission back data store device calendar contact list permission need declare ahead time Android include application manifest ios include application  infoplist  file    case user require grant access data store application try access recent os version vendor introduce additional privacy control user ability grant permission application application actively user   device jailbroken root   able access   user knowledge approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  utilize standard operating system api gather calendar entry datum Android accomplish Calendar Content Provider ios accomplish  eventkit  framework   device jailbroken root   able access   user knowledge approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  utilize standard operating system api gather log datum Android accomplish Log Content Provider ios provide standard api access log   device jailbroken root   able access   user knowledge approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  utilize standard operating system api gather contact list datum Android accomplish Contacts Content Provider ios accomplish  contact  framework   device jailbroken root   able access   user knowledge approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  utilize standard operating system api gather SMS message Android accomplish SMS Content Provider ios provide standard api access SMS message device jailbroken root   able access   user knowledge approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  utilize standard operating system api gather account datum Android accomplish AccountManager API example   use  getaccounts  method list accountscitation androidaccountmanagerfeb2025 ios accomplish Keychain service   device jailbroken root   able access   user knowledge approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  dynamically establish connection command control infrastructure evade common detection remediation achieve malware share common algorithm infrastructure us receive malware communication algorithm dynamically adjust parameter domain IP address port number malware use command control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use   dga procedurally generate domain name us command control communication    malicious application distribution dga increase difficulty defender block track command control channel potentially thousand domain malware check instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt position networked device support follow behavior       achieve mechanism example malicious application register VPN client effectively redirect device traffic owned resource register vpn client require user consent Android ios additionally special entitlement grant Apple need ios device alternatively malicious application escalation privilege utilize privilege gain access network traffic     Specific Android device in disk type AiTM attack monitor manipulate datum exchange application external storagecitation mitdkasperskycitation mitdcheckpointcitation mitdcheckpointresearch accomplish malicious application first request access multimedia file device  readexternal STORAGE   writeexternalstorage  application read datum device andor write malware device request access common maliciously access file sensitive datum abuse permission multiple application show vulnerable attack scrutiny permission input validation mitigate attack     outside mobile device able capture traffic employ rogue base station Wi Fi access point device allow capture network traffic leave device flow destination local network enterprise technique      application properly encrypt network traffic sensitive datum accessible depend point capture example properly implement Apple Application Transport Security ATS Android Network Security Configuration NSC prevent sensitive datum leakscitation NSCAndroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  steal datum exfiltrate different protocol exist command control channel datum send alternate network location main command control server alternate protocol include FTP SMTP HTTP S DNS SMB network protocol main command control channel different protocol channel include web service cloud storage   opt encrypt andor obfuscate alternate channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  steal datum exfiltrate un encrypt network protocol exist command control channel datum send alternate network location main command control server opt obfuscate datum use encryption network protocol natively unencrypted HTTP FTP DNS   employ custom publicly available encoding compression algorithm base64 embed datum protocol header field</t>
   </si>
   <si>
     <t xml:space="preserve">  interrupt availability system network resource inhibit access account utilize legitimate user account delete locked manipulate ex credential change remove access account</t>
   </si>
   <si>
-    <t xml:space="preserve">  insert delete alter datum manipulate external outcome hide activity manipulate datum   attempt affect business process organizational understanding decision making.the type modification impact depend target application process goal objective complex system   likely need special expertise possibly access specialized software relate system typically gain prolong information gathering campaign desire impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  alter datum en route storage system manipulate external outcome hide activity manipulate transmit datum   attempt affect business process organizational understanding decision making.manipulation possible network connection system process opportunity deploy tool intercept change information type modification impact depend target transmission mechanism goal objective complex system   likely need special expertise possibly access specialized software relate system typically gain prolong information gathering campaign desire impact.one method achieve transmit datum manipulation](https://attack.mitre.org technique t1641/001 modify content device clipboard malicious application monitor clipboard activity ` clipboardmanager.onprimaryclipchangedlistener ` interface android determine clipboard content change listen clipboard activity read clipboard content modify clipboard content require explicit application permission perform application run background behavior change release android 10 use transmit datum manipulation](https://attack.mitre.org technique t1641/001 replace text prior paste example replace copy bitcoin wallet address wallet address adversarial control.[transmitte datum manipulation](https://attack.mitre.org technique t1641/001 see android clipper.c trojan sample detect eset application distribute google play store target cryptocurrency wallet number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perform endpoint denial service do attack degrade block availability service users.on android version prior 7 app abuse device administrator access reset device lock passcode prevent user unlock device android 7 device profile owner e.g. mdm reset device passcode.on ios device technique work mobile device management server remove screen lock passcode set new passcode jailbroken device malware discover lock user device.(citation xiao keyraider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  generate outbound traffic device typically perform manipulate external outcome achieve carrier billing fraud manipulate app store ranking rating outbound traffic typically generate sms message general web traffic form well.if sms message android app hold ` send_sm ` permission additionally send sms message require user consent recipient premium number application send sms message io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  communicate compromise device band datum stream variety reason include evade network traffic monitoring backup method command control datum exfiltration device connect internet provide network i.e. cellular wi fi band datum stream exist sms message nfc bluetooth   android application read push notification capture content sms message band datum stream require user manually grant notification access application setting menu application launch intent user directly   io way programmatically read push notification</t>
+    <t xml:space="preserve">  insert delete alter datum manipulate external outcome hide activity manipulate datum   attempt affect business process organizational understanding decision making type modification impact depend target application process goal objective complex system   likely need special expertise possibly access specialized software relate system typically gain prolong information gathering campaign desire impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  alter datum en route storage system manipulate external outcome hide activity manipulate transmit datum   attempt affect business process organizational understanding decision making manipulation possible network connection system process opportunity deploy tool intercept change information type modification impact depend target transmission mechanism goal objective complex system   likely need special expertise possibly access specialized software relate system typically gain prolong information gathering campaign desire impact method achieve   modify content device clipboard malicious application monitor clipboard activity  ClipboardManager onprimaryclipchangedlistener  interface Android determine clipboard content change listen clipboard activity read clipboard content modify clipboard content require explicit application permission perform application run background behavior change release Android 10 use   replace text prior paste example replace copy Bitcoin wallet address wallet address adversarial control see Android Clipper C trojan sample detect ESET application distribute Google Play Store target cryptocurrency wallet number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  perform Endpoint Denial Service dos attack degrade block availability service user Android version prior 7 app abuse Device Administrator access reset device lock passcode prevent user unlock device Android 7 device profile owner eg MDMs reset device passcode ios device technique work mobile device management server remove screen lock passcode set new passcode jailbroken device malware discover lock user devicecitation Xiao KeyRaider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  generate outbound traffic device typically perform manipulate external outcome achieve carrier billing fraud manipulate app store ranking rating outbound traffic typically generate SMS message general web traffic form SMS message Android app hold  SENDSMS  permission additionally send SMS message require user consent recipient premium number application send SMS message iOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  communicate compromise device band datum stream variety reason include evade network traffic monitoring backup method command control datum exfiltration device connect internet provide network ie cellular Wi Fi band datum stream exist SMS message NFC Bluetooth   Android application read push notification capture content SMS message band datum stream require user manually grant notification access application setting menu application launch intent user directly   ios way programmatically read push notification</t>
   </si>
   <si>
     <t xml:space="preserve">  modify system software binary establish persistent access device system software binary underlie operating system user adb terminal emulator   modification client software binary carry malicious task binary execute example malware come pre compile malicious binary intend overwrite genuine device binary routinely execute system user   leverage persistent access device</t>
@@ -2273,34 +2279,34 @@
     <t xml:space="preserve">  steal datum exfiltrate exist command control channel steal datum encode normal communication channel protocol command control communication</t>
   </si>
   <si>
-    <t xml:space="preserve">  attempt manipulate feature artifact appear legitimate benign user and/or security tool masquerade occur location appearance object legitimate malicious manipulate abuse sake evade defense observation include manipulate file metadata trick user misidentify file type give legitimate task service names.rename abusable system utility evade security monitoring form masquerading](https://attack.mitre.org technique t1655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  match approximate location legitimate file resource naming place sake evade defense observation give artifact icon legitimate trust application i.e. setting package match legitimate trust application i.e. ` com.google.android.gm `   use icon file application try mimic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  exploit software vulnerability client application execute code vulnerability exist software insecure cod practice lead unanticipated behavior   advantage certain vulnerability target exploitation purpose arbitrary code execution oftentime valuable exploit offensive toolkit obtain code execution remote system gain access system user expect file relate application commonly work useful target exploit research development high utility   use device base zero click exploit code execution exploit powerful user interaction require code execution sms imessage delivery   sms imessage io common target drive compromise](https://attack.mitre.org techniques t1456 phishing](https://attack.mitre.org technique t1660 etc   use embed malicious link file etc sms message imessage mobile device compromise click exploit victim interact text message zero click exploit user interaction require airdrop unique ios airdrop network protocol allow ios user transfer file ios device patch apple release io 13.4 early   force apple wireless direct link awdl interface activate exploit buffer overflow gain access device run root interaction user  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  send malicious content user gain access mobile device form phishing electronically deliver social engineering   conduct non targeted phishing mass malware spam campaign target phishing tailor specific individual company industry know spearphishing phishing involve social engineering technique pose trusted source evasion technique remove manipulating email metadata header compromise account abuse send messages.mobile phishing form example   send email contain malicious attachment link typically deliver execute malicious code victim device phishing conduct party service like social medium platform   impersonate executive organization persuade victim perform action behalf example use social engineering technique text message trick victim act quickly lead obtain credential information mobile device particularly attractive target execute phishe campaign   small form factor traditional desktop endpoint user able notice minor difference genuine phishe website mobile device additional sensor radio allow execute phishing attempt different vector sms message   send sms message know smishe compromise device potential target convince target example install malware navigate specific website enable certain insecure configuration device.- quick response qr code   use qr code know quishe redirect user phishe website example replace legitimate public qr code lead different destination phishe website malicious qr code deliver mean sms email case utilize malicious qr code email pivot user desktop computer mobile device.- phone call   victim know vishe persuade perform action provide login credential navigate malicious website technique perform initial access mobile device pivot computer network have victim perform action desktop computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  push update previously benign application add malicious code accomplish push initially benign functional application trust application store google play store apple app store allow establish trust userbase grant permission application prior introduction malicious code application update push introduce malicious code.(citation android_app_breaking_bad)this technique accomplish compromise developer account allow advantage exist userbase have establish userbase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  destroy datum file specific device large number interrupt availability system service network resource datum destruction likely render store datum irrecoverable forensic technique overwrite file datum local remote drive   achieve datum destruction   use ` pm uninstall ` command uninstall package ` rm ` command remove specific file example   use ` pm uninstall ` uninstall non system app use ` rm -f &lt; file(s &gt; ` delete specific file hide malicious activity.(citation rootnik_rooting_tool)(citation abuse_native_linux_tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use legitimate remote access software ` vnc ` ` teamviewer ` ` airdroid ` ` airmirror ` etc establish interactive command control channel target mobile device   remote access application instal post compromise alternate communication channel redundant access way establish interactive remote session target device component malware establish reverse connection -controlled system service installation remote access tool include persistence  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  exploit software vulnerability gain initial access mobile device accomplish variety way vulnerability present application service underlie operating system kernel know mobile device exploit exist include forcedentry stagefright blueborne furthermore exploit possible exploit user interaction i.e. zero click exploit exploitation client execution](https://attack.mitre.org techniques t1658 make particularly dangerous mobile operating system vendor typically quick patch critical bug ensure small window exploit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  carry malicious operation virtualization solution escape android sandbox avoid detection android use sandbox separate resource code execution application operate system virtualization solution available android android virtualization framework avf    virtualization solution   execute malicious operation user knowledge example   mimic legitimate banking application functionality virtual environment thank virtualization solution malicious code capture credential  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  abuse link device feature message application signal whatsapp register user account -controlled device abuse link device feature   achieve maintain persistence user account collect information user message contact list send future message link device.signal message application use open source signal protocol encrypt message call similarly whatsapp message application end end encryption security measure protect message call application link device feature allow user access signal and/or whatsapp account different device window mac desktop ipad android tablet.(citation whatsapp_linkdevice_nodate)(citation signal_linkeddevices_nodate use phishing](https://attack.mitre.org technique t1660 technique trick user scan quick response qr code link user signal and/or whatsapp account -controlled device example   masquerade qr code group invite security alert legitimate instruction pair link device scan qr code signal user click transfer message history option sync link device allow collect information user scan qr code whatsapp user device automatically send end end encrypt copy recent message history -controlled device</t>
+    <t xml:space="preserve">  attempt manipulate feature artifact appear legitimate benign user andor security tool masquerade occur location appearance object legitimate malicious manipulate abuse sake evade defense observation include manipulate file metadata trick user misidentify file type give legitimate task service name rename abusable system utility evade security monitoring form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  match approximate location legitimate file resource naming place sake evade defense observation give artifact icon legitimate trust application ie setting package match legitimate trust application ie  comgoogleandroidgm    use icon file application try mimic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  exploit software vulnerability client application execute code vulnerability exist software insecure cod practice lead unanticipated behavior   advantage certain vulnerability target exploitation purpose arbitrary code execution oftentime valuable exploit offensive toolkit obtain code execution remote system gain access system user expect file relate application commonly work useful target exploit research development high utility   use device base zero click exploit code execution exploit powerful user interaction require code execution SMS iMessage Delivery   SMS iMessage ios common target etc   use embed malicious link file etc SMS message imessage mobile device compromise click exploit victim interact text message zero click exploit user interaction require AirDrop Unique iOS AirDrop network protocol allow ios user transfer file ios device patch Apple release ios 134 early   force Apple Wireless Direct Link AWDL interface activate exploit buffer overflow gain access device run root interaction user  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  send malicious content user gain access mobile device form phishing electronically deliver social engineering   conduct non targeted phishing mass malware spam campaign target phishing tailor specific individual company industry know spearphishing phishing involve social engineering technique pose trusted source evasion technique remove manipulating email metadata header compromise account abuse send message mobile phishing form example   send email contain malicious attachment link typically deliver execute malicious code victim device phishing conduct party service like social medium platform   impersonate executive organization persuade victim perform action behalf example use social engineering technique text message trick victim act quickly lead obtain credential information mobile device particularly attractive target execute phishe campaign   small form factor traditional desktop endpoint user able notice minor difference genuine phishe website mobile device additional sensor radio allow execute phishing attempt different vector SMS message   send SMS message know smishe compromise device potential target convince target example install malware navigate specific website enable certain insecure configuration device Quick Response QR code   use qr code know quishe redirect user phishe website example replace legitimate public qr Code lead different destination phishe website malicious qr code deliver mean sms email case utilize malicious QR code email pivot user desktop computer mobile device Phone call   victim know vishe persuade perform action provide login credential navigate malicious website technique perform initial access mobile device pivot computer network have victim perform action desktop computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  push update previously benign application add malicious code accomplish push initially benign functional application trust application store Google Play Store Apple App Store allow establish trust userbase grant permission application prior introduction malicious code application update push introduce malicious codecitation androidappbreakingbadthis technique accomplish compromise developer account allow advantage exist userbase have establish userbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  destroy datum file specific device large number interrupt availability system service network resource datum destruction likely render store datum irrecoverable forensic technique overwrite file datum local remote drive   achieve datum destruction   use  pm uninstall  command uninstall package  rm  command remove specific file example   use  pm uninstall  uninstall non system app use  rm f  files   delete specific file hide malicious activityCitation rootnikrootingtoolcitation abusenativelinuxtool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use legitimate remote access software  VNC   TeamViewer   AirDroid   AirMirror  etc establish interactive command control channel target mobile device   remote access application instal post compromise alternate communication channel redundant access way establish interactive remote session target device component malware establish reverse connection controlled system service installation remote access tool include persistence  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  exploit software vulnerability gain initial access mobile device accomplish variety way vulnerability present application service underlie operating system kernel know mobile device exploit exist include FORCEDENTRY StageFright BlueBorne furthermore exploit possible exploit user interaction ie zero click exploit make particularly dangerous mobile operating system vendor typically quick patch critical bug ensure small window exploit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  carry malicious operation virtualization solution escape Android sandbox avoid detection Android use sandbox separate resource code execution application operate system virtualization solution available Android Android Virtualization Framework AVF    virtualization solution   execute malicious operation user knowledge example   mimic legitimate banking application functionality virtual environment thank virtualization solution malicious code capture credential  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  abuse link device feature message application Signal WhatsApp register user account controlled device abuse link device feature   achieve maintain persistence user account collect information user message contact list send future message link device Signal message application use open source Signal Protocol encrypt message call similarly WhatsApp message application end end encryption security measure protect message call application link device feature allow user access Signal andor WhatsApp account different device Windows Mac desktop iPad Android tabletcitation whatsapplinkdevicenodatecitation SignalLinkedDevicesNoDate use   technique trick user scan quick response QR code link user Signal andor WhatsApp account controlled device example   masquerade qr code group invite security alert legitimate instruction pair link device scan QR code Signal user click Transfer Message history option sync link device allow collect information user scan QR code WhatsApp user device automatically send end end encrypt copy recent message history controlled device</t>
   </si>
   <si>
     <t>use, execute, establish</t>
@@ -2318,43 +2324,43 @@
     <t>perform, avoid, known, create, evade</t>
   </si>
   <si>
-    <t>execute, include, detect, evade, difficult.on</t>
+    <t>execute, include, detect, evade, utilize</t>
   </si>
   <si>
     <t>try, target, gain</t>
   </si>
   <si>
-    <t>start, paste, obtain, capture, set</t>
+    <t>start, obtain, capture, set, originate</t>
   </si>
   <si>
     <t>provide, use, obtain, collect, believe</t>
   </si>
   <si>
-    <t>intercept, include, authorize, use, advise</t>
-  </si>
-  <si>
-    <t>run, feel, use, start, create</t>
+    <t>intercept, include, Masquerading, authorize, use</t>
+  </si>
+  <si>
+    <t>run, start, create, mimic, compare</t>
   </si>
   <si>
     <t>attempt, listing, use, include, identify</t>
   </si>
   <si>
-    <t>listing, include, use</t>
-  </si>
-  <si>
-    <t>restrict, use, include, decide, infect</t>
-  </si>
-  <si>
-    <t>require, hold, listing, access, accomplish</t>
+    <t>include, listing, use</t>
+  </si>
+  <si>
+    <t>restrict, use, include, decide, take</t>
+  </si>
+  <si>
+    <t>require, hold, use, listing, access</t>
   </si>
   <si>
     <t>use, include, determine, relate, look</t>
   </si>
   <si>
-    <t>check, perform, determine, identify</t>
-  </si>
-  <si>
-    <t>search, use</t>
+    <t>check, perform, use, determine, owned</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>include, listing, run, acquire</t>
@@ -2363,7 +2369,7 @@
     <t>utilize, attempt, obtain, understanding, run</t>
   </si>
   <si>
-    <t>include, attempt, use, application, run</t>
+    <t>include, attempt, use, build, application</t>
   </si>
   <si>
     <t>exploit, take, gain, occur, execute</t>
@@ -2372,7 +2378,7 @@
     <t>include, hold, allow, capture, surrounding</t>
   </si>
   <si>
-    <t>track, use, exploited, hold, provide</t>
+    <t>use, track, exploited, hold, provide</t>
   </si>
   <si>
     <t>use, find, manage</t>
@@ -2384,13 +2390,13 @@
     <t>communicate, exist, utilize, include, browsing</t>
   </si>
   <si>
-    <t>communicate, avoid, exist, push, server</t>
-  </si>
-  <si>
-    <t>-controlled, gain, follow, gather, provide</t>
-  </si>
-  <si>
-    <t>feature, send, steal, perform, adjust</t>
+    <t>communicate, avoid, exist, Messaging, server</t>
+  </si>
+  <si>
+    <t>gain, follow, gather, request, provide</t>
+  </si>
+  <si>
+    <t>feature, send, steal, perform, control</t>
   </si>
   <si>
     <t>deliver, scripting, require, gain, browsing</t>
@@ -2399,7 +2405,7 @@
     <t>exploit, gain, include, connect, utilize</t>
   </si>
   <si>
-    <t>include, set, fail, seek, exist</t>
+    <t>include, mitigate, set, fail, seek</t>
   </si>
   <si>
     <t>perform, go, come, occur, prevent</t>
@@ -2423,13 +2429,13 @@
     <t>exist, communicate, offer, make, expect</t>
   </si>
   <si>
-    <t>use, exist, know, obfuscate, infect</t>
-  </si>
-  <si>
-    <t>send, exist, receive, occur, utilize</t>
-  </si>
-  <si>
-    <t>send, exist, receive, opt, include</t>
+    <t>exist, know, obfuscate, infect, communicate</t>
+  </si>
+  <si>
+    <t>send, exist, receive, compromised, occur</t>
+  </si>
+  <si>
+    <t>send, exist, receive, include, compromise</t>
   </si>
   <si>
     <t>generate, pairing, oppose, parsing</t>
@@ -2438,16 +2444,16 @@
     <t>use, gather, capture, recording, specify</t>
   </si>
   <si>
-    <t>run, use, collect, require</t>
-  </si>
-  <si>
-    <t>achieve, following, click, inject</t>
+    <t>run, use, collect, require, display</t>
+  </si>
+  <si>
+    <t>achieve, mimicking, click, steal, android</t>
   </si>
   <si>
     <t>send, contain, collect, intercept, dismiss</t>
   </si>
   <si>
-    <t>employ, rely, provide, engineering, generate</t>
+    <t>employ, rely, provide, engineering</t>
   </si>
   <si>
     <t>employ, know, rely, provide, use</t>
@@ -2456,7 +2462,7 @@
     <t>know, include, employ, rely, provide</t>
   </si>
   <si>
-    <t>ssl, protect, allow, establish, use</t>
+    <t>protect, allow, establish, use, utilize</t>
   </si>
   <si>
     <t>collect, compress, obfuscate, minimize, hide</t>
@@ -2465,28 +2471,28 @@
     <t>include, search, find, requires, token</t>
   </si>
   <si>
-    <t>run, interact, kill, abuse, maintain</t>
+    <t>run, interact, kill, maintain, begin</t>
   </si>
   <si>
     <t>transfer, copy</t>
   </si>
   <si>
-    <t>use, write, achieve, allow, call</t>
-  </si>
-  <si>
-    <t>inject, allow, add, include, modify</t>
-  </si>
-  <si>
-    <t>allow, send, depend, modify, delete</t>
+    <t>use, write, achieve, call, allow</t>
+  </si>
+  <si>
+    <t>allow, add, include, modify, establish</t>
+  </si>
+  <si>
+    <t>allow, send, spread, SENDSMS, depend</t>
   </si>
   <si>
     <t>allow, choose, abuse, recur, exist</t>
   </si>
   <si>
-    <t>use, utilize, hide, ip, alert</t>
-  </si>
-  <si>
-    <t>allow, require, redirect, manage, initiate</t>
+    <t>use, utilize, hide, alert, implement</t>
+  </si>
+  <si>
+    <t>allow, redirect, manage, require, initiate</t>
   </si>
   <si>
     <t>utilize, hide, evade, hooking, involve</t>
@@ -2519,13 +2525,13 @@
     <t>use, expect, continue, ensure, intended</t>
   </si>
   <si>
-    <t>require, include, limit, show, depend</t>
+    <t>require, include, limit, show, build</t>
   </si>
   <si>
     <t>hide, avoid, evade</t>
   </si>
   <si>
-    <t>hide, setting, require, see, steal</t>
+    <t>hide, setting, require, see, android</t>
   </si>
   <si>
     <t>operate, avoid, hide, remain, allow</t>
@@ -2570,7 +2576,7 @@
     <t>modify, include, provide, come, ensure</t>
   </si>
   <si>
-    <t>detect, vme, use, check, employ</t>
+    <t>detect, use, check, employ, mean</t>
   </si>
   <si>
     <t>detect, include, employ, avoid, drop</t>
@@ -2579,7 +2585,7 @@
     <t>search, obtain, depend, hold, manage</t>
   </si>
   <si>
-    <t>collect, acquire, build, track, prevent</t>
+    <t>collect, acquire, prevent, allow, contain</t>
   </si>
   <si>
     <t>token, require, steal, means, acquire</t>
@@ -2591,13 +2597,13 @@
     <t>include, utilize, collect, declare, require</t>
   </si>
   <si>
-    <t>utilize</t>
-  </si>
-  <si>
-    <t>utilize, provide</t>
-  </si>
-  <si>
-    <t>sms, utilize, provide</t>
+    <t>utilize, accomplish</t>
+  </si>
+  <si>
+    <t>utilize, gather, provide</t>
+  </si>
+  <si>
+    <t>utilize, gather</t>
   </si>
   <si>
     <t>utilize, gather, use, accomplish</t>
@@ -2606,10 +2612,10 @@
     <t>establish, evade, achieve, share, receive</t>
   </si>
   <si>
-    <t>use, generate, increase</t>
-  </si>
-  <si>
-    <t>networked, transmit, achieve, redirect, -owned</t>
+    <t>use, generate</t>
+  </si>
+  <si>
+    <t>networked, follow, achieve, redirect, owned</t>
   </si>
   <si>
     <t>include, steal, exfiltrate, exist, send</t>
@@ -2621,13 +2627,13 @@
     <t>utilize, locked, remove</t>
   </si>
   <si>
-    <t>hide, affect, depend, need, access</t>
-  </si>
-  <si>
-    <t>transmit, alter, hide, affect, intercept</t>
-  </si>
-  <si>
-    <t>perform, reset, set, discover</t>
+    <t>hide, affect, making, depend, need</t>
+  </si>
+  <si>
+    <t>modify, alter, hide, transmit, affect</t>
+  </si>
+  <si>
+    <t>perform, dos, reset, set, discover</t>
   </si>
   <si>
     <t>generate, send, perform, achieve, ranking</t>
@@ -2648,7 +2654,7 @@
     <t>match, evade, give, setting, use</t>
   </si>
   <si>
-    <t>click, exploit, gain, use, exist</t>
+    <t>click, exploit, gain, use, require</t>
   </si>
   <si>
     <t>send, know, perform, phishing, deliver</t>
@@ -2660,16 +2666,16 @@
     <t>use, destroy, render, achieve, remove</t>
   </si>
   <si>
-    <t>establish, use, -controlled, include</t>
+    <t>establish, use, controlled, include</t>
   </si>
   <si>
     <t>exploit, gain, know, exist, include</t>
   </si>
   <si>
-    <t>carry, escape, operate, execute, mimic</t>
-  </si>
-  <si>
-    <t>-controlled, collect, send, use, allow</t>
+    <t>carry, escape, use, operate, execute</t>
+  </si>
+  <si>
+    <t>controlled, collect, send, allow, achieve</t>
   </si>
   <si>
     <t>script, initialization, boot, persistence, operating</t>
@@ -2684,100 +2690,100 @@
     <t>technique, steganography, prevent, detection, information</t>
   </si>
   <si>
-    <t>software, packing, packer, pack, code</t>
-  </si>
-  <si>
-    <t>code, technique, download, installation, analysis</t>
+    <t>packer, software, packing, pack, code</t>
+  </si>
+  <si>
+    <t>code, download, technique, installation, analysis</t>
   </si>
   <si>
     <t>application, device, store, file, storage</t>
   </si>
   <si>
-    <t>application, clipboard, access, text, manager</t>
-  </si>
-  <si>
-    <t>user, input, capture, technique, method</t>
-  </si>
-  <si>
-    <t>user, method, keyboard, record, abuse</t>
-  </si>
-  <si>
-    <t>application, user, information, display, prompt</t>
+    <t>application, access, text, clipboard, manager</t>
+  </si>
+  <si>
+    <t>user, input, capture, method, credential</t>
+  </si>
+  <si>
+    <t>user, type, method, keyboard, record</t>
+  </si>
+  <si>
+    <t>application, user, prompt, information, display</t>
   </si>
   <si>
     <t>application, target, attempt, device, information</t>
   </si>
   <si>
-    <t>security, attempt, application, configuration, device</t>
-  </si>
-  <si>
-    <t>file, directory, information, discovery](https://attack.mitre.org, technique</t>
+    <t>attempt, security, application, configuration, device</t>
+  </si>
+  <si>
+    <t>file, directory, information, privilege, enumerate</t>
   </si>
   <si>
     <t>application, network, information, connection, device</t>
   </si>
   <si>
-    <t>network, information, configuration, device, access</t>
+    <t>network, information, device, access, discovery</t>
   </si>
   <si>
     <t>result, server, internet, connectivity, compromise</t>
   </si>
   <si>
-    <t>information, fi, network, name, password</t>
-  </si>
-  <si>
-    <t>device, network, attempt, service, host</t>
+    <t>information, network, search, name, password</t>
+  </si>
+  <si>
+    <t>device, attempt, service, host, software</t>
   </si>
   <si>
     <t>process, application, information, obtain, list</t>
   </si>
   <si>
-    <t>information, device, system, application, operating</t>
-  </si>
-  <si>
-    <t>service, exploitation, system, network, access</t>
+    <t>information, device, version, application, operating</t>
+  </si>
+  <si>
+    <t>service, system, exploitation, access, software</t>
   </si>
   <si>
     <t>access, device, application, permission, information</t>
   </si>
   <si>
-    <t>location, application, access, device, permission</t>
-  </si>
-  <si>
-    <t>device, management, location, access, cloud</t>
-  </si>
-  <si>
-    <t>network, device, engel, ss7)(citation, cell</t>
+    <t>location, application, access, request, device</t>
+  </si>
+  <si>
+    <t>management, device, access, cloud, service</t>
+  </si>
+  <si>
+    <t>network, device, cell, lack, authentication</t>
   </si>
   <si>
     <t>protocol, traffic, command, device, application</t>
   </si>
   <si>
-    <t>traffic, service, protocol, web, device</t>
-  </si>
-  <si>
-    <t>victim, device, transfer, phone, sms</t>
-  </si>
-  <si>
-    <t>accessibility, abuse, device, user, feature</t>
+    <t>traffic, protocol, web, device, service</t>
+  </si>
+  <si>
+    <t>victim, device, transfer, phone, controlle</t>
+  </si>
+  <si>
+    <t>accessibility, abuse, device, user, change</t>
   </si>
   <si>
     <t>user, website, web, visit, compromise</t>
   </si>
   <si>
-    <t>device, access, connection, application, store</t>
-  </si>
-  <si>
-    <t>device, attempt, passcode, bypass, authentication</t>
-  </si>
-  <si>
-    <t>network, signal, jam, device, service</t>
+    <t>device, case, connection, application, store</t>
+  </si>
+  <si>
+    <t>device, attempt, bypass, passcode, authentication</t>
+  </si>
+  <si>
+    <t>signal, jam, device, network, dos</t>
   </si>
   <si>
     <t>encrypt, file, store, device, user</t>
   </si>
   <si>
-    <t>software, manipulation, source, product, chain</t>
+    <t>software, compromise, source, product, supply</t>
   </si>
   <si>
     <t>product, application, manipulate, delivery, mechanism</t>
@@ -2789,13 +2795,13 @@
     <t>software, application, compromise, manipulation, manipulate</t>
   </si>
   <si>
-    <t>service, web, use, compromise, infrastructure</t>
+    <t>service, web, compromise, infrastructure, use</t>
   </si>
   <si>
     <t>service, web, infrastructure, resolver, host</t>
   </si>
   <si>
-    <t>service, web, compromise, system, command</t>
+    <t>service, web, system, command, compromise</t>
   </si>
   <si>
     <t>system, service, web, command, compromise</t>
@@ -2822,10 +2828,10 @@
     <t>cryptography, protocol, datum, encryption, use</t>
   </si>
   <si>
-    <t>certificate, client, pin, server, trust</t>
-  </si>
-  <si>
-    <t>exfiltration, datum, encryption, help, content</t>
+    <t>certificate, client, trust, server, pin</t>
+  </si>
+  <si>
+    <t>exfiltration, datum, encryption, encrypt, help</t>
   </si>
   <si>
     <t>system, file, access, datum, storage</t>
@@ -2843,13 +2849,13 @@
     <t>application, modification, code, vulnerability, device</t>
   </si>
   <si>
-    <t>message, sms, device, malware, content</t>
+    <t>message, device, malware, content, provider</t>
   </si>
   <si>
     <t>task, scheduling, time, schedule, system</t>
   </si>
   <si>
-    <t>proxy, traffic, compromise, device, server</t>
+    <t>proxy, traffic, api, compromise, device</t>
   </si>
   <si>
     <t>phone, application, call, permission, user</t>
@@ -2861,7 +2867,7 @@
     <t>command, script, abuse, interface, system</t>
   </si>
   <si>
-    <t>command, script, system, device, root</t>
+    <t>shell, command, script, system, device</t>
   </si>
   <si>
     <t>event, system, trigger, mechanism, device</t>
@@ -2879,16 +2885,16 @@
     <t>mechanism, control, privilege, system, user</t>
   </si>
   <si>
-    <t>device, technique, api, action, administrator</t>
-  </si>
-  <si>
-    <t>execution, guardrail, environment, target, value</t>
-  </si>
-  <si>
-    <t>location, application, device, technique, user</t>
-  </si>
-  <si>
-    <t>artifact, application, detection, feature, apis</t>
+    <t>device, app, action, administrator, user</t>
+  </si>
+  <si>
+    <t>execution, environment, target, guardrail, value</t>
+  </si>
+  <si>
+    <t>location, application, device, user, permission</t>
+  </si>
+  <si>
+    <t>artifact, api, application, detection, feature</t>
   </si>
   <si>
     <t>application, icon, user, app, system</t>
@@ -2936,7 +2942,7 @@
     <t>code, signing, policy, application, sign</t>
   </si>
   <si>
-    <t>virtualization, analysis, environment, sandbox, behavior</t>
+    <t>analysis, environment, behavior, artifact, virtualization</t>
   </si>
   <si>
     <t>check, environment, system, virtualization, presence</t>
@@ -2948,40 +2954,40 @@
     <t>access, keychain, database, datum, device</t>
   </si>
   <si>
-    <t>access, user, application, oauth, system</t>
-  </si>
-  <si>
-    <t>application, datum, intercept, resource, operating</t>
+    <t>access, user, application, system, resource</t>
+  </si>
+  <si>
+    <t>application, datum, intercept, operating, system</t>
   </si>
   <si>
     <t>application, user, permission, access, data</t>
   </si>
   <si>
-    <t>calendar, operating, system, apis, entry</t>
-  </si>
-  <si>
-    <t>log, access, operating, system, apis</t>
-  </si>
-  <si>
-    <t>contact, operating, system, apis, gather</t>
-  </si>
-  <si>
-    <t>message, access, operating, system, gather</t>
-  </si>
-  <si>
-    <t>operating, system, apis, account, accountmanager</t>
+    <t>operating, system, api, gather, calendar</t>
+  </si>
+  <si>
+    <t>api, log, access, operating, system</t>
+  </si>
+  <si>
+    <t>contact, operating, system, api, list</t>
+  </si>
+  <si>
+    <t>api, message, access, operating, system</t>
+  </si>
+  <si>
+    <t>operating, system, api, account, datum</t>
   </si>
   <si>
     <t>malware, command, control, infrastructure, connection</t>
   </si>
   <si>
-    <t>domain, generation, algorithms](https://attack.mitre.org, technique, t1637/001</t>
-  </si>
-  <si>
-    <t>device, application, technique, traffic, access</t>
-  </si>
-  <si>
-    <t>channel, protocol, command, datum, control</t>
+    <t>domain, name, command, control, communication</t>
+  </si>
+  <si>
+    <t>device, application, traffic, access, network</t>
+  </si>
+  <si>
+    <t>protocol, channel, command, datum, network</t>
   </si>
   <si>
     <t>datum, network, protocol, channel, location</t>
@@ -2993,13 +2999,13 @@
     <t>process, impact, system, delete, outcome</t>
   </si>
   <si>
-    <t>clipboard, system, datum, content, application</t>
-  </si>
-  <si>
-    <t>device, lock, service, android, passcode</t>
-  </si>
-  <si>
-    <t>message, traffic, sms, device, outcome</t>
+    <t>clipboard, system, content, application, activity</t>
+  </si>
+  <si>
+    <t>device, user, lock, passcode, attack</t>
+  </si>
+  <si>
+    <t>traffic, message, device, outcome, carrier</t>
   </si>
   <si>
     <t>band, application, notification, device, stream</t>
@@ -3011,7 +3017,7 @@
     <t>communication, datum, exfiltrate, steal, channel</t>
   </si>
   <si>
-    <t>manipulate, user, file, feature, artifact</t>
+    <t>manipulate, user, security, file, feature</t>
   </si>
   <si>
     <t>application, file, icon, trust, location</t>
@@ -3023,13 +3029,13 @@
     <t>device, code, website, user, phishing</t>
   </si>
   <si>
-    <t>application, store, userbase, update, code</t>
+    <t>application, userbase, update, code, push</t>
   </si>
   <si>
     <t>datum, file, system, destruction, pm</t>
   </si>
   <si>
-    <t>access, target, device, software, teamviewer</t>
+    <t>access, target, device, software, command</t>
   </si>
   <si>
     <t>exploit, vulnerability, device, operating, system</t>
@@ -3038,7 +3044,7 @@
     <t>virtualization, solution, operation, sandbox, code</t>
   </si>
   <si>
-    <t>device, message, user, link, application</t>
+    <t>device, user, message, link, application</t>
   </si>
   <si>
     <t>FALSE</t>
@@ -4553,49 +4559,49 @@
         <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="N2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="Q2" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R2" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S2" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T2">
         <v>2.1</v>
       </c>
       <c r="V2" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="W2" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X2" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -4612,49 +4618,49 @@
         <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="M3" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="N3" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="Q3" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R3" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S3" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T3">
         <v>2.1</v>
       </c>
       <c r="V3" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="W3" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X3" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -4671,49 +4677,49 @@
         <v>273</v>
       </c>
       <c r="G4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L4" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M4" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="N4" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="Q4" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R4" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S4" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T4">
         <v>3.1</v>
       </c>
       <c r="V4" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="W4" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X4" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -4730,49 +4736,49 @@
         <v>274</v>
       </c>
       <c r="G5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="M5" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="N5" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="Q5" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R5" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S5" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X5" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -4789,49 +4795,49 @@
         <v>275</v>
       </c>
       <c r="G6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K6" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="M6" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="N6" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O6" t="s">
         <v>25</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="Q6" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R6" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S6" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T6">
         <v>1.1</v>
       </c>
       <c r="W6" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X6" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -4851,49 +4857,49 @@
         <v>395</v>
       </c>
       <c r="G7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="N7" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="Q7" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R7" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S7" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T7">
         <v>1.5</v>
       </c>
       <c r="V7" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="W7" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X7" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -4910,49 +4916,49 @@
         <v>277</v>
       </c>
       <c r="G8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L8" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M8" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="N8" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="Q8" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R8" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S8" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T8">
         <v>3.1</v>
       </c>
       <c r="V8" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="W8" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X8" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -4969,49 +4975,49 @@
         <v>278</v>
       </c>
       <c r="G9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K9" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="M9" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="N9" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="Q9" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R9" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S9" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T9">
         <v>3.1</v>
       </c>
       <c r="V9" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="W9" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X9" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -5028,49 +5034,49 @@
         <v>279</v>
       </c>
       <c r="G10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K10" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L10" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="M10" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="N10" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="Q10" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R10" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S10" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T10">
         <v>2.3</v>
       </c>
       <c r="V10" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="W10" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X10" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -5087,52 +5093,52 @@
         <v>280</v>
       </c>
       <c r="G11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K11" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L11" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M11" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="N11" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O11" t="s">
         <v>31</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="Q11" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="R11" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S11" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T11">
         <v>1.1</v>
       </c>
       <c r="V11" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="W11" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X11" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -5149,52 +5155,52 @@
         <v>281</v>
       </c>
       <c r="G12" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H12" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J12" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K12" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L12" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="M12" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="N12" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O12" t="s">
         <v>31</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="Q12" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="R12" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S12" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T12">
         <v>1.1</v>
       </c>
       <c r="V12" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="W12" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X12" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -5211,49 +5217,49 @@
         <v>282</v>
       </c>
       <c r="G13" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H13" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J13" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K13" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L13" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="M13" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="N13" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="Q13" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R13" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T13">
         <v>2.1</v>
       </c>
       <c r="V13" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="W13" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X13" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -5273,52 +5279,52 @@
         <v>396</v>
       </c>
       <c r="G14" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H14" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J14" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K14" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L14" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="M14" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="N14" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O14" t="s">
         <v>34</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="Q14" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="R14" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S14" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T14">
         <v>1.1</v>
       </c>
       <c r="V14" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="W14" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X14" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -5335,49 +5341,49 @@
         <v>284</v>
       </c>
       <c r="G15" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H15" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J15" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K15" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L15" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M15" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="N15" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="Q15" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R15" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S15" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T15">
         <v>1.2</v>
       </c>
       <c r="V15" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="W15" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X15" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -5394,46 +5400,46 @@
         <v>285</v>
       </c>
       <c r="G16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H16" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J16" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K16" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L16" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M16" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="N16" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="Q16" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R16" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S16" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T16">
         <v>2.1</v>
       </c>
       <c r="W16" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X16" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -5450,46 +5456,46 @@
         <v>286</v>
       </c>
       <c r="G17" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H17" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J17" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K17" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L17" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M17" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="N17" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="Q17" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R17" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T17">
         <v>2.4</v>
       </c>
       <c r="W17" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X17" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -5506,46 +5512,46 @@
         <v>287</v>
       </c>
       <c r="G18" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H18" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J18" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K18" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L18" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="M18" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N18" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O18" t="s">
         <v>38</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="Q18" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="R18" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="S18" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T18">
         <v>1</v>
       </c>
       <c r="X18" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -5561,47 +5567,50 @@
       <c r="D19" t="s">
         <v>288</v>
       </c>
+      <c r="F19" t="s">
+        <v>397</v>
+      </c>
       <c r="G19" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H19" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J19" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K19" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="L19" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M19" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N19" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O19" t="s">
         <v>38</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="Q19" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="R19" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="S19" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="X19" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -5618,46 +5627,46 @@
         <v>289</v>
       </c>
       <c r="G20" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H20" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J20" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K20" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L20" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="M20" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="N20" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="Q20" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R20" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S20" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T20">
         <v>1.1</v>
       </c>
       <c r="W20" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X20" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -5674,46 +5683,46 @@
         <v>290</v>
       </c>
       <c r="G21" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J21" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K21" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L21" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M21" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="N21" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="Q21" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R21" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S21" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T21">
         <v>2.1</v>
       </c>
       <c r="W21" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X21" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -5730,49 +5739,49 @@
         <v>291</v>
       </c>
       <c r="G22" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H22" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J22" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K22" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L22" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="M22" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="N22" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="Q22" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R22" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S22" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T22">
         <v>1.2</v>
       </c>
       <c r="V22" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="W22" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X22" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -5789,52 +5798,52 @@
         <v>292</v>
       </c>
       <c r="F23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G23" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J23" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K23" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="L23" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="M23" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="N23" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="Q23" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R23" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S23" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T23">
         <v>1.2</v>
       </c>
       <c r="V23" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="W23" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X23" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -5851,49 +5860,49 @@
         <v>293</v>
       </c>
       <c r="G24" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H24" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J24" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K24" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L24" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M24" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N24" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="Q24" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R24" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S24" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T24">
         <v>3.1</v>
       </c>
       <c r="V24" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="W24" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X24" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -5910,49 +5919,49 @@
         <v>294</v>
       </c>
       <c r="G25" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H25" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J25" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K25" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L25" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M25" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="N25" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="Q25" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R25" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S25" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T25">
         <v>1.2</v>
       </c>
       <c r="V25" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="W25" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X25" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -5969,52 +5978,52 @@
         <v>295</v>
       </c>
       <c r="G26" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H26" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J26" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K26" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L26" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="M26" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="N26" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O26" t="s">
         <v>46</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="Q26" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="R26" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S26" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T26">
         <v>1.1</v>
       </c>
       <c r="V26" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="W26" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X26" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -6031,49 +6040,49 @@
         <v>296</v>
       </c>
       <c r="G27" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H27" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J27" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L27" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="M27" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="N27" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O27" t="s">
         <v>46</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="Q27" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="R27" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S27" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T27">
         <v>1.1</v>
       </c>
       <c r="V27" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="X27" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -6090,49 +6099,49 @@
         <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H28" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J28" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K28" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L28" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="M28" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="N28" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="Q28" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R28" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S28" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T28">
         <v>1.2</v>
       </c>
       <c r="V28" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="W28" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X28" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -6149,52 +6158,52 @@
         <v>298</v>
       </c>
       <c r="G29" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H29" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J29" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K29" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L29" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M29" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="N29" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O29" t="s">
         <v>49</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="Q29" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R29" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S29" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
       <c r="V29" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="W29" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X29" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -6211,55 +6220,55 @@
         <v>299</v>
       </c>
       <c r="F30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G30" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H30" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J30" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K30" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L30" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="M30" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="N30" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="Q30" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R30" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="S30" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="V30" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="W30" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="X30" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -6276,49 +6285,49 @@
         <v>300</v>
       </c>
       <c r="F31" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G31" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H31" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J31" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K31" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L31" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="M31" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N31" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="Q31" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R31" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="S31" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T31">
         <v>3</v>
       </c>
       <c r="U31" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="X31" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -6335,52 +6344,52 @@
         <v>301</v>
       </c>
       <c r="F32" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G32" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H32" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J32" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K32" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L32" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M32" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="N32" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="Q32" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R32" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S32" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T32">
         <v>2.2</v>
       </c>
       <c r="V32" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="W32" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X32" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -6397,49 +6406,49 @@
         <v>302</v>
       </c>
       <c r="G33" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H33" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J33" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K33" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L33" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M33" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="N33" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="Q33" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R33" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="S33" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T33">
         <v>2.1</v>
       </c>
       <c r="V33" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="W33" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X33" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -6456,46 +6465,46 @@
         <v>303</v>
       </c>
       <c r="G34" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H34" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J34" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K34" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L34" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="M34" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="N34" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="Q34" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R34" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S34" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T34">
         <v>1.3</v>
       </c>
       <c r="W34" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X34" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -6512,49 +6521,49 @@
         <v>304</v>
       </c>
       <c r="G35" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H35" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J35" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K35" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L35" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M35" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="N35" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="Q35" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R35" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="S35" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T35">
         <v>1.4</v>
       </c>
       <c r="V35" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="W35" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X35" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -6571,49 +6580,49 @@
         <v>305</v>
       </c>
       <c r="G36" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H36" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J36" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K36" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L36" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="M36" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="N36" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="Q36" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R36" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S36" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T36">
         <v>3.2</v>
       </c>
       <c r="V36" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="W36" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X36" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -6630,49 +6639,49 @@
         <v>306</v>
       </c>
       <c r="G37" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H37" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J37" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K37" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L37" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="M37" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="N37" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="Q37" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="R37" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S37" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T37">
         <v>2.1</v>
       </c>
       <c r="V37" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="W37" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X37" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -6689,52 +6698,52 @@
         <v>307</v>
       </c>
       <c r="G38" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H38" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J38" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K38" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L38" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M38" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="N38" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O38" t="s">
         <v>58</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="Q38" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="R38" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S38" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T38">
         <v>1.1</v>
       </c>
       <c r="V38" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="W38" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X38" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -6751,52 +6760,52 @@
         <v>308</v>
       </c>
       <c r="G39" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H39" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J39" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K39" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="L39" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M39" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="N39" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O39" t="s">
         <v>58</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="Q39" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="R39" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S39" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T39">
         <v>1.1</v>
       </c>
       <c r="V39" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="W39" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X39" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -6813,52 +6822,52 @@
         <v>309</v>
       </c>
       <c r="G40" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H40" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J40" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K40" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L40" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="M40" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="N40" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O40" t="s">
         <v>58</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="Q40" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="R40" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S40" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T40">
         <v>1.1</v>
       </c>
       <c r="V40" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="W40" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X40" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -6875,46 +6884,46 @@
         <v>310</v>
       </c>
       <c r="G41" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H41" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J41" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K41" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L41" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="M41" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="N41" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="Q41" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="R41" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S41" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T41">
         <v>1.3</v>
       </c>
       <c r="W41" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X41" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -6931,49 +6940,49 @@
         <v>311</v>
       </c>
       <c r="G42" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H42" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J42" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K42" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L42" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M42" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="N42" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O42" t="s">
         <v>62</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="Q42" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="R42" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S42" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T42">
         <v>1.2</v>
       </c>
       <c r="W42" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X42" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -6990,49 +6999,49 @@
         <v>312</v>
       </c>
       <c r="G43" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H43" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J43" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K43" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L43" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M43" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="N43" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O43" t="s">
         <v>62</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="Q43" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="R43" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S43" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T43">
         <v>1.2</v>
       </c>
       <c r="W43" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X43" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -7049,49 +7058,49 @@
         <v>313</v>
       </c>
       <c r="G44" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H44" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J44" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K44" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L44" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="M44" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="N44" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O44" t="s">
         <v>62</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="Q44" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="R44" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S44" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T44">
         <v>1.2</v>
       </c>
       <c r="W44" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X44" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -7108,46 +7117,46 @@
         <v>314</v>
       </c>
       <c r="G45" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H45" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J45" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K45" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L45" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="M45" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="N45" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="Q45" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="R45" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S45" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T45">
         <v>2.1</v>
       </c>
       <c r="W45" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X45" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -7164,52 +7173,52 @@
         <v>315</v>
       </c>
       <c r="F46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G46" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H46" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J46" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K46" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L46" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="M46" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="N46" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="Q46" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="R46" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S46" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T46">
         <v>2.1</v>
       </c>
       <c r="V46" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="W46" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X46" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -7226,49 +7235,49 @@
         <v>316</v>
       </c>
       <c r="G47" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H47" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J47" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K47" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="L47" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M47" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="N47" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="Q47" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="R47" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S47" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T47">
         <v>1.3</v>
       </c>
       <c r="V47" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="W47" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X47" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -7285,49 +7294,49 @@
         <v>317</v>
       </c>
       <c r="G48" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H48" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J48" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K48" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L48" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M48" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="N48" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="Q48" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="R48" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S48" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T48">
         <v>1.2</v>
       </c>
       <c r="U48" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="W48" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X48" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -7344,46 +7353,46 @@
         <v>318</v>
       </c>
       <c r="G49" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H49" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J49" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K49" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="L49" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="M49" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="N49" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="Q49" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="R49" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S49" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T49">
         <v>1.2</v>
       </c>
       <c r="W49" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X49" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -7400,46 +7409,46 @@
         <v>319</v>
       </c>
       <c r="G50" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H50" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J50" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K50" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="L50" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="M50" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="N50" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="Q50" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="R50" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S50" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T50">
         <v>2</v>
       </c>
       <c r="W50" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X50" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -7456,49 +7465,49 @@
         <v>320</v>
       </c>
       <c r="G51" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H51" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J51" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K51" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L51" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="M51" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="N51" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O51" t="s">
         <v>71</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="Q51" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="R51" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S51" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T51">
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X51" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -7515,52 +7524,52 @@
         <v>321</v>
       </c>
       <c r="F52" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G52" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H52" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J52" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K52" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="L52" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M52" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="N52" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O52" t="s">
         <v>71</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="Q52" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="R52" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S52" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T52">
         <v>1</v>
       </c>
       <c r="W52" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X52" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -7577,55 +7586,55 @@
         <v>322</v>
       </c>
       <c r="F53" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G53" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H53" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J53" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K53" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L53" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M53" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="N53" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O53" t="s">
         <v>71</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="Q53" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="R53" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="S53" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T53">
         <v>1</v>
       </c>
       <c r="U53" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="W53" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X53" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -7642,46 +7651,46 @@
         <v>323</v>
       </c>
       <c r="G54" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H54" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J54" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K54" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L54" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M54" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="N54" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="Q54" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="R54" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S54" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="W54" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X54" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -7698,49 +7707,49 @@
         <v>324</v>
       </c>
       <c r="G55" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H55" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J55" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K55" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L55" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M55" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="N55" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="Q55" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="R55" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S55" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T55">
         <v>1.1</v>
       </c>
       <c r="V55" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="W55" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X55" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -7757,52 +7766,52 @@
         <v>325</v>
       </c>
       <c r="G56" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H56" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J56" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K56" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L56" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M56" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="N56" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="Q56" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="R56" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S56" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T56">
         <v>2.1</v>
       </c>
       <c r="U56" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="V56" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="W56" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X56" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -7819,46 +7828,46 @@
         <v>326</v>
       </c>
       <c r="G57" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H57" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J57" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K57" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="L57" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="M57" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="N57" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="Q57" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="R57" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S57" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T57">
         <v>2.2</v>
       </c>
       <c r="W57" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X57" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -7875,46 +7884,46 @@
         <v>327</v>
       </c>
       <c r="G58" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H58" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J58" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K58" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L58" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="M58" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="N58" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="Q58" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="R58" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S58" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T58">
         <v>2</v>
       </c>
       <c r="W58" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X58" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -7931,46 +7940,46 @@
         <v>328</v>
       </c>
       <c r="G59" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H59" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J59" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K59" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L59" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="M59" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="N59" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="Q59" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="R59" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S59" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T59">
         <v>1</v>
       </c>
       <c r="W59" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X59" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -7987,49 +7996,49 @@
         <v>329</v>
       </c>
       <c r="G60" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H60" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J60" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K60" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L60" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M60" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="N60" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="Q60" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="R60" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S60" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T60">
         <v>1.1</v>
       </c>
       <c r="V60" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="W60" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X60" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -8046,49 +8055,49 @@
         <v>330</v>
       </c>
       <c r="G61" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H61" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J61" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K61" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L61" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M61" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="N61" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="Q61" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="R61" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S61" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="U61" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="W61" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X61" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -8105,46 +8114,46 @@
         <v>331</v>
       </c>
       <c r="G62" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H62" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J62" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K62" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="L62" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M62" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="N62" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="Q62" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="R62" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S62" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T62">
         <v>1.1</v>
       </c>
       <c r="W62" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X62" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -8161,55 +8170,55 @@
         <v>332</v>
       </c>
       <c r="F63" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G63" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H63" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J63" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K63" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="L63" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="M63" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="N63" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="Q63" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="R63" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S63" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T63">
         <v>1.2</v>
       </c>
       <c r="U63" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="V63" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="W63" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X63" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -8226,49 +8235,49 @@
         <v>333</v>
       </c>
       <c r="G64" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H64" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J64" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K64" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L64" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="M64" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="N64" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="Q64" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="R64" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S64" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T64">
         <v>1</v>
       </c>
       <c r="U64" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="W64" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X64" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -8284,47 +8293,50 @@
       <c r="D65" t="s">
         <v>334</v>
       </c>
+      <c r="F65" t="s">
+        <v>406</v>
+      </c>
       <c r="G65" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H65" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J65" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K65" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L65" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="M65" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="N65" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="Q65" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R65" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S65" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T65">
         <v>1.2</v>
       </c>
       <c r="W65" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X65" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -8341,49 +8353,49 @@
         <v>335</v>
       </c>
       <c r="G66" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H66" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J66" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K66" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="L66" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M66" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="N66" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O66" t="s">
         <v>86</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="Q66" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R66" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S66" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T66">
         <v>1.2</v>
       </c>
       <c r="W66" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X66" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -8400,46 +8412,46 @@
         <v>336</v>
       </c>
       <c r="G67" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H67" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J67" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K67" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="L67" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="M67" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="N67" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="Q67" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R67" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S67" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T67">
         <v>1.1</v>
       </c>
       <c r="W67" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X67" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -8456,52 +8468,52 @@
         <v>337</v>
       </c>
       <c r="G68" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H68" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J68" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K68" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="L68" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M68" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="N68" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O68" t="s">
         <v>88</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="Q68" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R68" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S68" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T68">
         <v>1.1</v>
       </c>
       <c r="U68" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="W68" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X68" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -8518,49 +8530,49 @@
         <v>338</v>
       </c>
       <c r="G69" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H69" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J69" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K69" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L69" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="M69" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="N69" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="Q69" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R69" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S69" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T69">
         <v>1.1</v>
       </c>
       <c r="V69" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="W69" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X69" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -8577,52 +8589,52 @@
         <v>339</v>
       </c>
       <c r="G70" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H70" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J70" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K70" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="L70" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="M70" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="N70" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O70" t="s">
         <v>90</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="Q70" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R70" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S70" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T70">
         <v>1.1</v>
       </c>
       <c r="V70" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="W70" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X70" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -8639,49 +8651,49 @@
         <v>340</v>
       </c>
       <c r="G71" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H71" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J71" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K71" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="L71" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M71" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="N71" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="Q71" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R71" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S71" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T71">
         <v>1.1</v>
       </c>
       <c r="V71" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="W71" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X71" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -8698,55 +8710,55 @@
         <v>341</v>
       </c>
       <c r="F72" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G72" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H72" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J72" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K72" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="L72" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="M72" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="N72" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O72" t="s">
         <v>92</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="Q72" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R72" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S72" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T72">
         <v>1.1</v>
       </c>
       <c r="V72" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="W72" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X72" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -8763,49 +8775,49 @@
         <v>342</v>
       </c>
       <c r="F73" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G73" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H73" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J73" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K73" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L73" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="M73" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="N73" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="Q73" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R73" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S73" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T73">
         <v>1.1</v>
       </c>
       <c r="W73" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X73" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -8822,52 +8834,52 @@
         <v>343</v>
       </c>
       <c r="F74" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G74" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H74" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J74" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K74" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L74" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="M74" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="N74" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O74" t="s">
         <v>94</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="Q74" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R74" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S74" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T74">
         <v>1.1</v>
       </c>
       <c r="W74" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X74" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -8884,46 +8896,46 @@
         <v>344</v>
       </c>
       <c r="G75" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H75" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J75" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K75" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L75" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="M75" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N75" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="Q75" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R75" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S75" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T75">
         <v>1.1</v>
       </c>
       <c r="W75" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X75" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -8940,52 +8952,52 @@
         <v>345</v>
       </c>
       <c r="G76" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H76" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J76" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K76" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="L76" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="M76" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="N76" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O76" t="s">
         <v>96</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="Q76" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R76" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S76" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T76">
         <v>1.1</v>
       </c>
       <c r="U76" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="W76" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X76" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -9002,49 +9014,49 @@
         <v>346</v>
       </c>
       <c r="G77" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H77" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J77" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K77" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="L77" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="M77" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="N77" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O77" t="s">
         <v>96</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="Q77" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="R77" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S77" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T77">
         <v>1</v>
       </c>
       <c r="W77" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X77" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -9061,49 +9073,49 @@
         <v>347</v>
       </c>
       <c r="G78" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H78" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J78" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K78" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="L78" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M78" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N78" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O78" t="s">
         <v>96</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="Q78" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="R78" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="S78" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T78">
         <v>1</v>
       </c>
       <c r="U78" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="X78" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -9120,49 +9132,49 @@
         <v>348</v>
       </c>
       <c r="G79" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H79" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J79" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K79" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="L79" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="M79" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N79" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="Q79" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R79" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S79" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T79">
         <v>1.1</v>
       </c>
       <c r="V79" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="W79" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X79" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -9179,55 +9191,55 @@
         <v>349</v>
       </c>
       <c r="G80" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H80" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J80" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K80" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="L80" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="M80" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="N80" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O80" t="s">
         <v>100</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="Q80" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R80" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S80" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T80">
         <v>1.2</v>
       </c>
       <c r="U80" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="V80" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="W80" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X80" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -9244,52 +9256,52 @@
         <v>350</v>
       </c>
       <c r="G81" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H81" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J81" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K81" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="L81" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="M81" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="N81" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O81" t="s">
         <v>100</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="Q81" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R81" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S81" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T81">
         <v>1.1</v>
       </c>
       <c r="V81" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="W81" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X81" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -9306,49 +9318,49 @@
         <v>351</v>
       </c>
       <c r="G82" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H82" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J82" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K82" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="L82" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M82" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="N82" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O82" t="s">
         <v>100</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="Q82" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R82" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S82" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T82">
         <v>1.1</v>
       </c>
       <c r="W82" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X82" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -9365,49 +9377,49 @@
         <v>352</v>
       </c>
       <c r="G83" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H83" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J83" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K83" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L83" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="M83" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="N83" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="Q83" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R83" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S83" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T83">
         <v>1.1</v>
       </c>
       <c r="V83" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="W83" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X83" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -9424,52 +9436,52 @@
         <v>353</v>
       </c>
       <c r="G84" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H84" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J84" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K84" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="L84" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="M84" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="N84" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O84" t="s">
         <v>104</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="Q84" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R84" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S84" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T84">
         <v>1.1</v>
       </c>
       <c r="V84" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="W84" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X84" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -9486,49 +9498,49 @@
         <v>354</v>
       </c>
       <c r="G85" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H85" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J85" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K85" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L85" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="M85" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N85" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O85" t="s">
         <v>104</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="Q85" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R85" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S85" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T85">
         <v>1.1</v>
       </c>
       <c r="W85" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X85" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -9545,52 +9557,52 @@
         <v>355</v>
       </c>
       <c r="G86" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H86" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J86" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K86" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="L86" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M86" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N86" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O86" t="s">
         <v>104</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="Q86" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="R86" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S86" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T86">
         <v>1.1</v>
       </c>
       <c r="V86" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="W86" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X86" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -9607,46 +9619,46 @@
         <v>356</v>
       </c>
       <c r="G87" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H87" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J87" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K87" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="L87" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="M87" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="N87" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="Q87" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R87" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S87" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T87">
         <v>1.1</v>
       </c>
       <c r="W87" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X87" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -9663,49 +9675,49 @@
         <v>357</v>
       </c>
       <c r="G88" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H88" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J88" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K88" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L88" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="M88" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="N88" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O88" t="s">
         <v>108</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="Q88" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R88" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S88" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T88">
         <v>1.1</v>
       </c>
       <c r="W88" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X88" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -9722,49 +9734,49 @@
         <v>358</v>
       </c>
       <c r="G89" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H89" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J89" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K89" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="L89" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M89" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N89" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="Q89" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R89" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S89" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T89">
         <v>1.1</v>
       </c>
       <c r="V89" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="W89" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X89" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -9781,55 +9793,55 @@
         <v>359</v>
       </c>
       <c r="F90" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G90" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H90" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J90" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K90" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="L90" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="M90" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N90" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O90" t="s">
         <v>110</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="Q90" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R90" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S90" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T90">
         <v>1.1</v>
       </c>
       <c r="V90" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="W90" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X90" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -9846,46 +9858,46 @@
         <v>360</v>
       </c>
       <c r="G91" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H91" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J91" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K91" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="L91" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="M91" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="N91" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="Q91" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R91" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S91" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T91">
         <v>1.1</v>
       </c>
       <c r="W91" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X91" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -9902,49 +9914,49 @@
         <v>361</v>
       </c>
       <c r="G92" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H92" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J92" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K92" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="L92" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="M92" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="N92" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O92" t="s">
         <v>112</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="Q92" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R92" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S92" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T92">
         <v>1.1</v>
       </c>
       <c r="W92" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X92" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -9961,49 +9973,49 @@
         <v>362</v>
       </c>
       <c r="G93" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H93" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J93" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K93" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="L93" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="M93" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="N93" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="Q93" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R93" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S93" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T93">
         <v>1.1</v>
       </c>
       <c r="V93" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="W93" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X93" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -10020,52 +10032,52 @@
         <v>363</v>
       </c>
       <c r="G94" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H94" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J94" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K94" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="L94" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="M94" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="N94" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O94" t="s">
         <v>114</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="Q94" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R94" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S94" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T94">
         <v>1.1</v>
       </c>
       <c r="V94" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="W94" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X94" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -10082,46 +10094,46 @@
         <v>364</v>
       </c>
       <c r="G95" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H95" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J95" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K95" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L95" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="M95" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="N95" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="Q95" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R95" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S95" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T95">
         <v>1.2</v>
       </c>
       <c r="W95" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X95" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -10138,52 +10150,52 @@
         <v>365</v>
       </c>
       <c r="G96" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H96" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J96" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K96" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="L96" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M96" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="N96" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O96" t="s">
         <v>116</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="Q96" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R96" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S96" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T96">
         <v>1.1</v>
       </c>
       <c r="U96" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="W96" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X96" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -10200,49 +10212,49 @@
         <v>366</v>
       </c>
       <c r="G97" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H97" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J97" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K97" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="L97" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="M97" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="N97" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="Q97" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R97" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S97" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T97">
         <v>1.1</v>
       </c>
       <c r="V97" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="W97" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X97" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -10259,52 +10271,52 @@
         <v>367</v>
       </c>
       <c r="F98" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G98" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H98" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J98" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K98" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="L98" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="M98" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="N98" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O98" t="s">
         <v>118</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="Q98" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R98" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S98" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T98">
         <v>1.1</v>
       </c>
       <c r="V98" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="X98" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -10321,55 +10333,55 @@
         <v>368</v>
       </c>
       <c r="F99" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G99" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H99" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J99" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K99" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L99" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M99" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="N99" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O99" t="s">
         <v>118</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="Q99" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R99" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S99" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T99">
         <v>1.1</v>
       </c>
       <c r="V99" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="W99" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X99" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -10386,55 +10398,55 @@
         <v>369</v>
       </c>
       <c r="F100" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G100" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H100" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J100" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K100" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L100" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="M100" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="N100" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O100" t="s">
         <v>118</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="Q100" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R100" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S100" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T100">
         <v>1.1</v>
       </c>
       <c r="V100" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="W100" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X100" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -10451,52 +10463,52 @@
         <v>370</v>
       </c>
       <c r="F101" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G101" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H101" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J101" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K101" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L101" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M101" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="N101" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O101" t="s">
         <v>118</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="Q101" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R101" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S101" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T101">
         <v>1.1</v>
       </c>
       <c r="V101" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="X101" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -10513,52 +10525,52 @@
         <v>371</v>
       </c>
       <c r="F102" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G102" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H102" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J102" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K102" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L102" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="M102" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="N102" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O102" t="s">
         <v>118</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="Q102" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="R102" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="S102" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T102">
         <v>1</v>
       </c>
       <c r="U102" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="X102" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -10575,46 +10587,46 @@
         <v>372</v>
       </c>
       <c r="G103" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H103" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J103" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K103" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L103" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="M103" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="N103" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="Q103" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="R103" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S103" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T103">
         <v>1.1</v>
       </c>
       <c r="W103" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X103" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -10631,52 +10643,52 @@
         <v>373</v>
       </c>
       <c r="F104" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G104" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H104" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J104" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K104" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="L104" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="M104" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="N104" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O104" t="s">
         <v>124</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="Q104" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="R104" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S104" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T104">
         <v>1.1</v>
       </c>
       <c r="W104" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X104" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="105" spans="1:24">
@@ -10693,52 +10705,52 @@
         <v>374</v>
       </c>
       <c r="F105" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G105" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H105" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J105" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K105" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="L105" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M105" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="N105" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="Q105" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="R105" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S105" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T105">
         <v>2.2</v>
       </c>
       <c r="V105" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="W105" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X105" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -10755,49 +10767,49 @@
         <v>375</v>
       </c>
       <c r="G106" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H106" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J106" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K106" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="L106" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="M106" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="N106" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="Q106" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="R106" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S106" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T106">
         <v>1.1</v>
       </c>
       <c r="V106" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="W106" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X106" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -10814,52 +10826,52 @@
         <v>376</v>
       </c>
       <c r="G107" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H107" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J107" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K107" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="L107" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M107" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="N107" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O107" t="s">
         <v>127</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="Q107" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="R107" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S107" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T107">
         <v>1.1</v>
       </c>
       <c r="V107" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="W107" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X107" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -10876,46 +10888,46 @@
         <v>377</v>
       </c>
       <c r="G108" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H108" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J108" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K108" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="L108" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M108" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="N108" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="Q108" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="R108" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S108" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T108">
         <v>1.1</v>
       </c>
       <c r="W108" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X108" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -10932,46 +10944,46 @@
         <v>378</v>
       </c>
       <c r="G109" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H109" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J109" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K109" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="L109" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="M109" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="N109" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="Q109" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="R109" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S109" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T109">
         <v>1.1</v>
       </c>
       <c r="W109" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X109" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -10988,52 +11000,52 @@
         <v>379</v>
       </c>
       <c r="F110" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G110" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H110" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J110" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K110" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="L110" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="M110" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="N110" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O110" t="s">
         <v>130</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="Q110" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="R110" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S110" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T110">
         <v>1.1</v>
       </c>
       <c r="W110" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X110" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -11050,46 +11062,46 @@
         <v>380</v>
       </c>
       <c r="G111" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H111" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J111" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K111" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L111" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="M111" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="N111" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="Q111" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="R111" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S111" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T111">
         <v>1.1</v>
       </c>
       <c r="W111" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X111" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -11106,49 +11118,49 @@
         <v>381</v>
       </c>
       <c r="G112" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H112" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J112" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K112" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="L112" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="M112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N112" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="Q112" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="R112" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S112" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T112">
         <v>1.1</v>
       </c>
       <c r="V112" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="W112" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X112" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -11165,46 +11177,46 @@
         <v>382</v>
       </c>
       <c r="G113" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H113" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J113" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K113" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="L113" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="M113" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="N113" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="Q113" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="R113" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S113" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T113">
         <v>2.1</v>
       </c>
       <c r="W113" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X113" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -11221,49 +11233,49 @@
         <v>383</v>
       </c>
       <c r="G114" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H114" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J114" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K114" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L114" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="M114" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="N114" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="Q114" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="R114" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S114" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T114">
         <v>1.1</v>
       </c>
       <c r="V114" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="W114" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X114" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -11280,49 +11292,49 @@
         <v>384</v>
       </c>
       <c r="G115" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H115" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J115" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K115" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="L115" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="M115" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="N115" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="Q115" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="R115" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S115" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T115">
         <v>1.1</v>
       </c>
       <c r="V115" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="W115" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X115" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -11339,49 +11351,49 @@
         <v>385</v>
       </c>
       <c r="G116" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H116" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J116" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K116" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="L116" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="M116" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="N116" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="Q116" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="R116" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="S116" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T116">
         <v>1</v>
       </c>
       <c r="V116" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="W116" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X116" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -11398,52 +11410,52 @@
         <v>386</v>
       </c>
       <c r="G117" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H117" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J117" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K117" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L117" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="M117" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N117" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O117" t="s">
         <v>137</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="Q117" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="R117" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="S117" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T117">
         <v>1</v>
       </c>
       <c r="U117" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="V117" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="X117" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -11460,52 +11472,52 @@
         <v>387</v>
       </c>
       <c r="F118" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G118" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H118" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J118" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K118" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L118" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M118" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="N118" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="Q118" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="R118" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="S118" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T118">
         <v>1</v>
       </c>
       <c r="U118" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="W118" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X118" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -11522,52 +11534,52 @@
         <v>388</v>
       </c>
       <c r="G119" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H119" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J119" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K119" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L119" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="M119" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="N119" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="Q119" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="R119" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="S119" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T119">
         <v>1.1</v>
       </c>
       <c r="U119" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="V119" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="W119" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X119" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -11584,52 +11596,52 @@
         <v>389</v>
       </c>
       <c r="G120" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H120" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J120" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="K120" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="L120" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="M120" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="N120" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="Q120" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="R120" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="S120" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T120">
         <v>1</v>
       </c>
       <c r="U120" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="V120" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="W120" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X120" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -11646,49 +11658,49 @@
         <v>390</v>
       </c>
       <c r="G121" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H121" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J121" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K121" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="L121" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="M121" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="N121" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="Q121" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="R121" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="S121" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T121">
         <v>1</v>
       </c>
       <c r="U121" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="W121" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="X121" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -11705,43 +11717,43 @@
         <v>391</v>
       </c>
       <c r="G122" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H122" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J122" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K122" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="L122" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="M122" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N122" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="Q122" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="R122" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="S122" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T122">
         <v>1</v>
       </c>
       <c r="X122" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -11758,46 +11770,46 @@
         <v>392</v>
       </c>
       <c r="F123" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G123" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H123" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J123" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K123" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="L123" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="M123" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="N123" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="Q123" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="R123" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="S123" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T123">
         <v>1.1</v>
       </c>
       <c r="X123" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -11814,46 +11826,46 @@
         <v>393</v>
       </c>
       <c r="G124" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H124" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J124" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K124" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="L124" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M124" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="N124" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="Q124" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="R124" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="S124" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T124">
         <v>1</v>
       </c>
       <c r="U124" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="X124" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -11870,49 +11882,49 @@
         <v>394</v>
       </c>
       <c r="F125" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G125" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H125" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J125" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K125" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="L125" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="M125" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="N125" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="Q125" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="R125" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="S125" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T125">
         <v>1</v>
       </c>
       <c r="U125" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="X125" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
   </sheetData>
